--- a/data/trans_orig/Q45A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q45A_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>936</v>
+        <v>895</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8635</v>
+        <v>8024</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01315093224016279</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003439748875148226</v>
+        <v>0.003288153591314518</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03173120366179174</v>
+        <v>0.02948673891894578</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5807</v>
+        <v>5305</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004481827823899644</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02226104658470889</v>
+        <v>0.02033659666480835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>4748</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10620</v>
+        <v>10513</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00890808903915846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003316939032984807</v>
+        <v>0.003295367164893929</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01992633947132609</v>
+        <v>0.01972541435999896</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>19535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11200</v>
+        <v>11545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30817</v>
+        <v>32169</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07178958731074155</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04115974543237805</v>
+        <v>0.04242546422129076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1132505762832931</v>
+        <v>0.1182182591273515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -835,19 +835,19 @@
         <v>9990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5103</v>
+        <v>5406</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18916</v>
+        <v>19319</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03829948981138516</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01956329574553579</v>
+        <v>0.02072545435144349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07252037406705227</v>
+        <v>0.0740665581188467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -856,19 +856,19 @@
         <v>29525</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19954</v>
+        <v>19800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42664</v>
+        <v>44560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0553988247067578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03744110077988763</v>
+        <v>0.03715214826234279</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08005208796325887</v>
+        <v>0.0836097749310772</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>105429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>90370</v>
+        <v>90489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>122926</v>
+        <v>121522</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3874426871309021</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3321038836638072</v>
+        <v>0.3325393359879862</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4517461796688268</v>
+        <v>0.4465858624797961</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -906,19 +906,19 @@
         <v>92194</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>76595</v>
+        <v>77513</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>108598</v>
+        <v>107882</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3534532519863589</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2936493902810791</v>
+        <v>0.2971696382499674</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4163433532033382</v>
+        <v>0.4135983999471404</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>196</v>
@@ -927,19 +927,19 @@
         <v>197623</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>174717</v>
+        <v>175012</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>221317</v>
+        <v>220956</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3708075381138407</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.32782817540752</v>
+        <v>0.3283827266516282</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4152669787647091</v>
+        <v>0.4145892807032707</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>83636</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68793</v>
+        <v>69408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98580</v>
+        <v>100052</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.307357500859072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2528080299384787</v>
+        <v>0.2550696599856623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3622735652048403</v>
+        <v>0.3676839289540507</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -977,19 +977,19 @@
         <v>98971</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82613</v>
+        <v>83183</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115992</v>
+        <v>115437</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3794350330823426</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3167228806331876</v>
+        <v>0.3189069521313151</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4446881438960583</v>
+        <v>0.4425619186522961</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -998,19 +998,19 @@
         <v>182607</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>161164</v>
+        <v>160142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>205685</v>
+        <v>204107</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3426337708005173</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3023983128450813</v>
+        <v>0.3004816704281968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3859348139595483</v>
+        <v>0.3829737396587314</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>59936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46771</v>
+        <v>47656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74161</v>
+        <v>75645</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2202592924591216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1718812893015123</v>
+        <v>0.1751315475224017</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2725382016411859</v>
+        <v>0.2779884826103506</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -1048,19 +1048,19 @@
         <v>58514</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>46302</v>
+        <v>45629</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>73956</v>
+        <v>74121</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2243303972960138</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.177513624923556</v>
+        <v>0.1749304367624509</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2835324089827644</v>
+        <v>0.284164254812298</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -1069,19 +1069,19 @@
         <v>118450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98437</v>
+        <v>100209</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>140337</v>
+        <v>139970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2222517773397258</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1847021564383697</v>
+        <v>0.1880262254485601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2633210395536486</v>
+        <v>0.262630742350314</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>6004</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13523</v>
+        <v>13576</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0121758378832631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004127758926622666</v>
+        <v>0.004156629029728326</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02742527312263192</v>
+        <v>0.02753316894609113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1194,19 +1194,19 @@
         <v>12327</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7563</v>
+        <v>6738</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20276</v>
+        <v>20264</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02446056299688415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01500657321487057</v>
+        <v>0.01337070304790935</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04023421703168554</v>
+        <v>0.04020979365341847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1215,19 +1215,19 @@
         <v>18330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10902</v>
+        <v>11076</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29196</v>
+        <v>29945</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01838519153974594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01093491494777653</v>
+        <v>0.01110858514381255</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0292833585445332</v>
+        <v>0.03003453944120107</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>39576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28552</v>
+        <v>27994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54924</v>
+        <v>53095</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08026434514207455</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05790662996664117</v>
+        <v>0.05677415154565064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1113913954986838</v>
+        <v>0.1076821531968607</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -1265,19 +1265,19 @@
         <v>40644</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30463</v>
+        <v>30305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54593</v>
+        <v>53306</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08065090978884364</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06044843938659824</v>
+        <v>0.06013538149701683</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1083299006819718</v>
+        <v>0.105776106764671</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>79</v>
@@ -1286,19 +1286,19 @@
         <v>80220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64066</v>
+        <v>62610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98156</v>
+        <v>97604</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08045973548094515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06425759797193092</v>
+        <v>0.06279679061017711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09844931920487328</v>
+        <v>0.09789507178296765</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>157969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>138610</v>
+        <v>139559</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>179493</v>
+        <v>180640</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3203756528039885</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2811129642955431</v>
+        <v>0.2830384656892104</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3640281738119039</v>
+        <v>0.3663532169922117</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>160</v>
@@ -1336,19 +1336,19 @@
         <v>160565</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>141588</v>
+        <v>139900</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>183260</v>
+        <v>181024</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3186138939663393</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2809579477770533</v>
+        <v>0.2776077448092413</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3636480999999108</v>
+        <v>0.3592104961097273</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>310</v>
@@ -1357,19 +1357,19 @@
         <v>318534</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>290690</v>
+        <v>286953</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>346786</v>
+        <v>345899</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3194851661566098</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2915575081125044</v>
+        <v>0.2878097590212059</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3478206159983249</v>
+        <v>0.3469314112317497</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>127783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109066</v>
+        <v>109368</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146434</v>
+        <v>148709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2591552222096883</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2211956730439271</v>
+        <v>0.2218070409055152</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.29698118654373</v>
+        <v>0.3015954840329247</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -1407,19 +1407,19 @@
         <v>103866</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87215</v>
+        <v>86636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122083</v>
+        <v>121893</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2061032442291436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1730629394209574</v>
+        <v>0.171913844435271</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2422520250662065</v>
+        <v>0.2418747491132003</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -1428,19 +1428,19 @@
         <v>231648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>205536</v>
+        <v>204800</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>259730</v>
+        <v>257314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.232339930014677</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2061491478468828</v>
+        <v>0.205411148649205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2605055762066266</v>
+        <v>0.2580817300120405</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>161743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>140736</v>
+        <v>141100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183595</v>
+        <v>182878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3280289419609855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2854254007333598</v>
+        <v>0.2861635884603658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3723476381067565</v>
+        <v>0.3708938330495589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -1478,19 +1478,19 @@
         <v>186548</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>165879</v>
+        <v>165324</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212222</v>
+        <v>209256</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3701713890187893</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3291584335323748</v>
+        <v>0.3280564382208573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4211184832829761</v>
+        <v>0.4152316228563355</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>328</v>
@@ -1499,19 +1499,19 @@
         <v>348290</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>316226</v>
+        <v>319235</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>374800</v>
+        <v>380330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3493299768080222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.317170095959061</v>
+        <v>0.3201879062364201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3759189002052304</v>
+        <v>0.3814656597638124</v>
       </c>
     </row>
     <row r="15">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10522</v>
+        <v>9224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008615649332511353</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03300069949512202</v>
+        <v>0.02892954305385283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9056</v>
+        <v>10381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004198748701854223</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01384097286658777</v>
+        <v>0.01586755107228994</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>33232</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23575</v>
+        <v>23583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46655</v>
+        <v>45291</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1042266131603674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07393714223832475</v>
+        <v>0.07396296908560614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1463243822780211</v>
+        <v>0.1420473702431734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1687,19 +1687,19 @@
         <v>28794</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20141</v>
+        <v>19848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39197</v>
+        <v>40528</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08584740916664851</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06004711020943023</v>
+        <v>0.05917503685283927</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1168610100504231</v>
+        <v>0.1208317639264268</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>61</v>
@@ -1708,19 +1708,19 @@
         <v>62026</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49626</v>
+        <v>47349</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78853</v>
+        <v>77376</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09480432650757832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07585112850011302</v>
+        <v>0.07237044863822156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1205233378798802</v>
+        <v>0.1182653866121189</v>
       </c>
     </row>
     <row r="18">
@@ -1737,19 +1737,19 @@
         <v>226073</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>206666</v>
+        <v>210525</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>241150</v>
+        <v>242333</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7090358525327758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6481690646619563</v>
+        <v>0.6602722398699752</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7563197586140543</v>
+        <v>0.7600320555007942</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>235</v>
@@ -1758,19 +1758,19 @@
         <v>235914</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>219202</v>
+        <v>218662</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>252894</v>
+        <v>252281</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7033562623405714</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6535307149117807</v>
+        <v>0.6519220246670867</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7539786980157063</v>
+        <v>0.7521530820202565</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>457</v>
@@ -1779,19 +1779,19 @@
         <v>461987</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>438054</v>
+        <v>436671</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>484561</v>
+        <v>485470</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7061241526093401</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6695426426388439</v>
+        <v>0.6674296548559812</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7406266039786242</v>
+        <v>0.7420159557229445</v>
       </c>
     </row>
     <row r="19">
@@ -1808,19 +1808,19 @@
         <v>45016</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33897</v>
+        <v>33080</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59516</v>
+        <v>58932</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1411848653170646</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1063102824152675</v>
+        <v>0.1037497816821878</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1866608475358165</v>
+        <v>0.184829894474524</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1829,19 +1829,19 @@
         <v>51083</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39306</v>
+        <v>39449</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65093</v>
+        <v>65137</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.152300145317786</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1171879842069499</v>
+        <v>0.1176120925041781</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1940684919366991</v>
+        <v>0.1941993489718392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -1850,19 +1850,19 @@
         <v>96100</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78759</v>
+        <v>77804</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>114271</v>
+        <v>113918</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1468832271410371</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1203783998823374</v>
+        <v>0.1189191059833956</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1746576571926433</v>
+        <v>0.1741181154398606</v>
       </c>
     </row>
     <row r="20">
@@ -1879,19 +1879,19 @@
         <v>11777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6164</v>
+        <v>6185</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19881</v>
+        <v>20406</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03693701965728085</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01933096530927341</v>
+        <v>0.0193994154279716</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06235405340309242</v>
+        <v>0.06399921398021982</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1900,19 +1900,19 @@
         <v>19620</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12476</v>
+        <v>12334</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29277</v>
+        <v>28778</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05849618317499411</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03719572335785569</v>
+        <v>0.03677268215831926</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08728559953116409</v>
+        <v>0.08579791294240512</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -1921,19 +1921,19 @@
         <v>31398</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21803</v>
+        <v>22091</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44739</v>
+        <v>44822</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04798954504019022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03332529726153167</v>
+        <v>0.03376531868069024</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06838071941970805</v>
+        <v>0.06850743148801459</v>
       </c>
     </row>
     <row r="21">
@@ -2025,19 +2025,19 @@
         <v>4392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1017</v>
+        <v>1609</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11480</v>
+        <v>11609</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01224564993686029</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00283443976484377</v>
+        <v>0.004485815034718277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03200658083694312</v>
+        <v>0.03236554477558642</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7918</v>
+        <v>8805</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004260773101399586</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02131635076010502</v>
+        <v>0.02370324136877104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2067,19 +2067,19 @@
         <v>5975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1995</v>
+        <v>2472</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14170</v>
+        <v>14333</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008183302129340096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002732552289499231</v>
+        <v>0.003386374178166418</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01940726961666134</v>
+        <v>0.01963074928115248</v>
       </c>
     </row>
     <row r="23">
@@ -2096,19 +2096,19 @@
         <v>21310</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13307</v>
+        <v>14399</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31493</v>
+        <v>33512</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05941299549637379</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03710085871478824</v>
+        <v>0.04014537070453916</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08780382085805341</v>
+        <v>0.09343268024496595</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -2117,19 +2117,19 @@
         <v>19258</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12061</v>
+        <v>11925</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28512</v>
+        <v>28348</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05184476711675726</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03246933906744461</v>
+        <v>0.03210329457765635</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07675732809859781</v>
+        <v>0.07631597212627315</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -2138,19 +2138,19 @@
         <v>40568</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30294</v>
+        <v>29420</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>53357</v>
+        <v>54282</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05556261976756977</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04149196410541949</v>
+        <v>0.0402942972754437</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07307919092550641</v>
+        <v>0.07434648398990136</v>
       </c>
     </row>
     <row r="24">
@@ -2167,19 +2167,19 @@
         <v>204736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>184406</v>
+        <v>184404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>223221</v>
+        <v>223184</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5708190711195754</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5141377315996012</v>
+        <v>0.5141305323168845</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6223557230703946</v>
+        <v>0.6222526074807403</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>200</v>
@@ -2188,19 +2188,19 @@
         <v>192163</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>173342</v>
+        <v>174474</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>212065</v>
+        <v>209901</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.51732253738973</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4666551309700643</v>
+        <v>0.4697036936693512</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5709032302390097</v>
+        <v>0.5650773936112585</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>405</v>
@@ -2209,19 +2209,19 @@
         <v>396899</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>368945</v>
+        <v>372840</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>420905</v>
+        <v>424429</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5436024300885897</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5053161162580833</v>
+        <v>0.5106509502489019</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.576482263583062</v>
+        <v>0.5813078049348142</v>
       </c>
     </row>
     <row r="25">
@@ -2238,19 +2238,19 @@
         <v>104583</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88358</v>
+        <v>89485</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>122801</v>
+        <v>123756</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2915844932052005</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2463488722412422</v>
+        <v>0.2494908323247945</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3423776725682465</v>
+        <v>0.345039886566444</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -2259,19 +2259,19 @@
         <v>113060</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>95827</v>
+        <v>96346</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>131947</v>
+        <v>129318</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3043704631003446</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2579763613821058</v>
+        <v>0.2593742298919048</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3552145241707697</v>
+        <v>0.3481374398522761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>224</v>
@@ -2280,19 +2280,19 @@
         <v>217643</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>194937</v>
+        <v>191706</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>244447</v>
+        <v>239877</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2980894221904403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2669904848572719</v>
+        <v>0.2625654991400161</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.334801168566158</v>
+        <v>0.3285419001990378</v>
       </c>
     </row>
     <row r="26">
@@ -2309,19 +2309,19 @@
         <v>23650</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15140</v>
+        <v>15432</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34847</v>
+        <v>35092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06593779024198999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04221137059322827</v>
+        <v>0.04302508414832007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09715539778246078</v>
+        <v>0.09783974153877875</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -2330,19 +2330,19 @@
         <v>45392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34588</v>
+        <v>34595</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58387</v>
+        <v>58883</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1222014592917686</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09311498817816249</v>
+        <v>0.09313368975377675</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1571836476363788</v>
+        <v>0.1585207511319493</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>70</v>
@@ -2351,19 +2351,19 @@
         <v>69042</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>54690</v>
+        <v>55486</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>87429</v>
+        <v>86635</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09456222582406025</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07490491321035081</v>
+        <v>0.07599519150824881</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1197451144472325</v>
+        <v>0.1186580088726689</v>
       </c>
     </row>
     <row r="27">
@@ -2455,19 +2455,19 @@
         <v>14905</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8832</v>
+        <v>8842</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23578</v>
+        <v>23876</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07331037443705522</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04344046648455312</v>
+        <v>0.04348996081863247</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1159720326748874</v>
+        <v>0.1174387155049361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2476,19 +2476,19 @@
         <v>9470</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4750</v>
+        <v>4318</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17181</v>
+        <v>17517</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04560104977391532</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02287421968780945</v>
+        <v>0.02079510821791655</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08273236762649373</v>
+        <v>0.08434953153523636</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2497,19 +2497,19 @@
         <v>24374</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16245</v>
+        <v>15639</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>36488</v>
+        <v>35447</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05930873105617663</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03952864004025968</v>
+        <v>0.03805348015484117</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08878291134931547</v>
+        <v>0.08625104437411917</v>
       </c>
     </row>
     <row r="29">
@@ -2526,19 +2526,19 @@
         <v>17852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11382</v>
+        <v>11087</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27857</v>
+        <v>26893</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08781001372753439</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05598189352930002</v>
+        <v>0.05453412763593033</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1370204875002634</v>
+        <v>0.1322762185532067</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2547,19 +2547,19 @@
         <v>11907</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6676</v>
+        <v>6072</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20085</v>
+        <v>19486</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05733508005193685</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03214689954268225</v>
+        <v>0.02924019705999465</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09671582281277932</v>
+        <v>0.09383169041301115</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -2568,19 +2568,19 @@
         <v>29759</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20660</v>
+        <v>20824</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40741</v>
+        <v>41951</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07241089597316858</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05027048431388616</v>
+        <v>0.05066861837027992</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09913141315304227</v>
+        <v>0.1020762433023794</v>
       </c>
     </row>
     <row r="30">
@@ -2597,19 +2597,19 @@
         <v>97392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>83945</v>
+        <v>82361</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>112189</v>
+        <v>111221</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4790362276530785</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4128951007988054</v>
+        <v>0.4051046106889151</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5518160289203489</v>
+        <v>0.5470587300499653</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>98</v>
@@ -2618,19 +2618,19 @@
         <v>103867</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>89506</v>
+        <v>89594</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>118937</v>
+        <v>119266</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5001598675398465</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4310058237784499</v>
+        <v>0.4314274841514596</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5727243832229951</v>
+        <v>0.5743122161304611</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>191</v>
@@ -2639,19 +2639,19 @@
         <v>201259</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>180462</v>
+        <v>181631</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>222229</v>
+        <v>223402</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4897100956089464</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4391055530972843</v>
+        <v>0.4419504437000097</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5407348668915336</v>
+        <v>0.5435898897079253</v>
       </c>
     </row>
     <row r="31">
@@ -2668,19 +2668,19 @@
         <v>28506</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20010</v>
+        <v>20503</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38710</v>
+        <v>39291</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1402092787920156</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09842060443681433</v>
+        <v>0.1008449730237682</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1903988333192168</v>
+        <v>0.19325955380241</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>22</v>
@@ -2689,19 +2689,19 @@
         <v>23694</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15307</v>
+        <v>16174</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36097</v>
+        <v>35780</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1140933345392588</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07370717839030588</v>
+        <v>0.07788356326592837</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1738186475301638</v>
+        <v>0.1722934076419373</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>53</v>
@@ -2710,19 +2710,19 @@
         <v>52199</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39107</v>
+        <v>38528</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>67478</v>
+        <v>67349</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1270127775265615</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09515615032961608</v>
+        <v>0.09374658244792267</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1641893300996664</v>
+        <v>0.1638748202848072</v>
       </c>
     </row>
     <row r="32">
@@ -2739,19 +2739,19 @@
         <v>44653</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34385</v>
+        <v>33597</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56921</v>
+        <v>57564</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2196341053903162</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1691260665649366</v>
+        <v>0.1652502904735484</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2799729891236418</v>
+        <v>0.2831363185356597</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>57</v>
@@ -2760,19 +2760,19 @@
         <v>58731</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47075</v>
+        <v>44489</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>73045</v>
+        <v>71432</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2828106680950424</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2266845530230182</v>
+        <v>0.2142307353667268</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3517402400872838</v>
+        <v>0.3439742682017065</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>106</v>
@@ -2781,19 +2781,19 @@
         <v>103384</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>86286</v>
+        <v>86738</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>123070</v>
+        <v>121160</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2515574998351469</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2099548397423409</v>
+        <v>0.2110545079365738</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.299457892285119</v>
+        <v>0.2948102807878378</v>
       </c>
     </row>
     <row r="33">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4582</v>
+        <v>4017</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003377390153944374</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01692088222633754</v>
+        <v>0.01483285812090924</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5473</v>
+        <v>5216</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001666137318761287</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009969769234630792</v>
+        <v>0.009501795334600735</v>
       </c>
     </row>
     <row r="35">
@@ -2948,19 +2948,19 @@
         <v>26491</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17654</v>
+        <v>18195</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38901</v>
+        <v>38401</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09782108074390253</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06518969929510864</v>
+        <v>0.06718708376502369</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1436465011574639</v>
+        <v>0.1417986434639351</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -2969,19 +2969,19 @@
         <v>17485</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11041</v>
+        <v>10588</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27546</v>
+        <v>27287</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06286262466826295</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0396965240078161</v>
+        <v>0.03806627220142415</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09903627208833726</v>
+        <v>0.09810276390261444</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>41</v>
@@ -2990,19 +2990,19 @@
         <v>43976</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>32707</v>
+        <v>31153</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>60778</v>
+        <v>58657</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08010836342482228</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05957968082339695</v>
+        <v>0.05674951621787373</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1107164891657564</v>
+        <v>0.106852565226607</v>
       </c>
     </row>
     <row r="36">
@@ -3019,19 +3019,19 @@
         <v>175244</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>159630</v>
+        <v>157763</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>191272</v>
+        <v>189244</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6471094177841668</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5894508312376853</v>
+        <v>0.5825584202917651</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7062949843764148</v>
+        <v>0.6988065186859568</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>184</v>
@@ -3040,19 +3040,19 @@
         <v>187492</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>170006</v>
+        <v>170619</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>202542</v>
+        <v>202625</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6740833353651577</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6112151417894948</v>
+        <v>0.6134197043095164</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.728192236599301</v>
+        <v>0.7284885628325007</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>356</v>
@@ -3061,19 +3061,19 @@
         <v>362737</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>339839</v>
+        <v>340179</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>383185</v>
+        <v>383020</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6607765367229005</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6190662075151624</v>
+        <v>0.6196843656490135</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6980268008740995</v>
+        <v>0.6977255312836985</v>
       </c>
     </row>
     <row r="37">
@@ -3090,19 +3090,19 @@
         <v>51705</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>39791</v>
+        <v>39757</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>63506</v>
+        <v>66217</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1909283393817104</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1469320833723624</v>
+        <v>0.1468078756277836</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2345018942071026</v>
+        <v>0.2445151124920402</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>46</v>
@@ -3111,19 +3111,19 @@
         <v>49061</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>36813</v>
+        <v>37806</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>62970</v>
+        <v>64703</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1763863942630177</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1323526186698016</v>
+        <v>0.1359229817610904</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2263933443969371</v>
+        <v>0.2326235839229056</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>98</v>
@@ -3132,19 +3132,19 @@
         <v>100766</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>84880</v>
+        <v>83450</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>121621</v>
+        <v>119602</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1835602404416524</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1546211123472589</v>
+        <v>0.1520164477959649</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2215493158120936</v>
+        <v>0.2178727908034431</v>
       </c>
     </row>
     <row r="38">
@@ -3161,19 +3161,19 @@
         <v>16455</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9884</v>
+        <v>10105</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>25295</v>
+        <v>25519</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06076377193627596</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0364959691984701</v>
+        <v>0.03731499033177366</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09340456034210817</v>
+        <v>0.094233457488234</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>23</v>
@@ -3182,19 +3182,19 @@
         <v>24106</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>15676</v>
+        <v>15509</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>35096</v>
+        <v>35380</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08666764570356159</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05635838254594567</v>
+        <v>0.05575883191458315</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1261781805359336</v>
+        <v>0.127200465580393</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>40</v>
@@ -3203,19 +3203,19 @@
         <v>40562</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>29662</v>
+        <v>28558</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>54069</v>
+        <v>53795</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07388872209186358</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05403422592272215</v>
+        <v>0.05202171132095677</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09849379847922594</v>
+        <v>0.09799530273570316</v>
       </c>
     </row>
     <row r="39">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6757</v>
+        <v>6534</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003192515363990686</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01098628665542649</v>
+        <v>0.0106237454986488</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -3328,19 +3328,19 @@
         <v>8910</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4024</v>
+        <v>3872</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16922</v>
+        <v>16201</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01396048040353224</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006305483990381683</v>
+        <v>0.006067212822159196</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02651485488045669</v>
+        <v>0.02538407034462396</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -3349,19 +3349,19 @@
         <v>10873</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5342</v>
+        <v>5623</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>18821</v>
+        <v>18537</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.008676131558139785</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004262485294872138</v>
+        <v>0.00448709945409748</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01501746084295085</v>
+        <v>0.01479123837733571</v>
       </c>
     </row>
     <row r="41">
@@ -3378,19 +3378,19 @@
         <v>58267</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>44447</v>
+        <v>44632</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>75577</v>
+        <v>75637</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09473959734886092</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0722680042187102</v>
+        <v>0.07256955349128456</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1228835743573064</v>
+        <v>0.1229809201263707</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>47</v>
@@ -3399,19 +3399,19 @@
         <v>47618</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>36364</v>
+        <v>37184</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>63570</v>
+        <v>63355</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07461046952324973</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05697719555430315</v>
+        <v>0.05826155464009119</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09960543446220177</v>
+        <v>0.09926825797801409</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>102</v>
@@ -3420,19 +3420,19 @@
         <v>105885</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>85905</v>
+        <v>86454</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>127143</v>
+        <v>127786</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08448878292726078</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06854593645598607</v>
+        <v>0.068984044465851</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1014511638652763</v>
+        <v>0.1019643037672602</v>
       </c>
     </row>
     <row r="42">
@@ -3449,19 +3449,19 @@
         <v>309071</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>283759</v>
+        <v>280936</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>335399</v>
+        <v>334349</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5025318338397495</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4613771283905163</v>
+        <v>0.4567862232645265</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5453403548780177</v>
+        <v>0.5436326467413941</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>355</v>
@@ -3470,19 +3470,19 @@
         <v>365021</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>336826</v>
+        <v>340571</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>390371</v>
+        <v>390031</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5719372654990997</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5277585654133291</v>
+        <v>0.5336263972577727</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6116566369184064</v>
+        <v>0.6111244335133073</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>659</v>
@@ -3491,19 +3491,19 @@
         <v>674092</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>641295</v>
+        <v>637757</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>712109</v>
+        <v>708680</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5378767432642813</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.511707033610948</v>
+        <v>0.508884143738026</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5682117778020938</v>
+        <v>0.5654751832199835</v>
       </c>
     </row>
     <row r="43">
@@ -3520,19 +3520,19 @@
         <v>81238</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>65713</v>
+        <v>66215</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>99210</v>
+        <v>99630</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1320890874264012</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1068449822208262</v>
+        <v>0.1076624040404135</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1613093218741477</v>
+        <v>0.1619935030980973</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>63</v>
@@ -3541,19 +3541,19 @@
         <v>60986</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>47500</v>
+        <v>47626</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>78579</v>
+        <v>76822</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09555731162803294</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07442588079736157</v>
+        <v>0.07462324602919462</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.123122077150485</v>
+        <v>0.1203692479521105</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>146</v>
@@ -3562,19 +3562,19 @@
         <v>142225</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>121562</v>
+        <v>121018</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>164882</v>
+        <v>165387</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.113485178829621</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09699794162858158</v>
+        <v>0.09656395399810271</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1315640858229615</v>
+        <v>0.1319667913729611</v>
       </c>
     </row>
     <row r="44">
@@ -3591,19 +3591,19 @@
         <v>164487</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>144068</v>
+        <v>143478</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>188453</v>
+        <v>188673</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2674469660209977</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2342458381370179</v>
+        <v>0.2332868297578534</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3064140532714983</v>
+        <v>0.3067712363311398</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>147</v>
@@ -3612,19 +3612,19 @@
         <v>155684</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>134943</v>
+        <v>134388</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>179232</v>
+        <v>178059</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2439344729460854</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2114370709584249</v>
+        <v>0.2105674547153044</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2808322624153081</v>
+        <v>0.2789929049309032</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>301</v>
@@ -3633,19 +3633,19 @@
         <v>320171</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>288325</v>
+        <v>289029</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>353030</v>
+        <v>355371</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2554731634206972</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2300628620290411</v>
+        <v>0.2306246060509633</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2816928977666415</v>
+        <v>0.2835602565379772</v>
       </c>
     </row>
     <row r="45">
@@ -3737,19 +3737,19 @@
         <v>33748</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>23715</v>
+        <v>24198</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>47357</v>
+        <v>46903</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04537290119104842</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03188349233373557</v>
+        <v>0.03253286200702696</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06367006868045617</v>
+        <v>0.06305845264288822</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>21</v>
@@ -3758,19 +3758,19 @@
         <v>22196</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>15049</v>
+        <v>14197</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>33564</v>
+        <v>34002</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02832924518232231</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01920747903154765</v>
+        <v>0.01811982993769788</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04283818202257805</v>
+        <v>0.0433973138117834</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>53</v>
@@ -3779,19 +3779,19 @@
         <v>55944</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>41925</v>
+        <v>42754</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>71694</v>
+        <v>70694</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03662947217481087</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02745050699240205</v>
+        <v>0.02799276559145747</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04694176414114318</v>
+        <v>0.04628696483139623</v>
       </c>
     </row>
     <row r="47">
@@ -3808,19 +3808,19 @@
         <v>126742</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>108113</v>
+        <v>106944</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>147962</v>
+        <v>147561</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1703984958736214</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1453538144520609</v>
+        <v>0.1437818435919944</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1989283154868745</v>
+        <v>0.1983899427806977</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>89</v>
@@ -3829,19 +3829,19 @@
         <v>92652</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>75713</v>
+        <v>75441</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>111242</v>
+        <v>112057</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1182518086604274</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0966335136890219</v>
+        <v>0.09628577721064162</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1419791025413983</v>
+        <v>0.1430192566089285</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>218</v>
@@ -3850,19 +3850,19 @@
         <v>219393</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>195649</v>
+        <v>191404</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>250350</v>
+        <v>245516</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1436471428865001</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.128100886624844</v>
+        <v>0.1253212721257724</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1639158496227702</v>
+        <v>0.1607509412944635</v>
       </c>
     </row>
     <row r="48">
@@ -3879,19 +3879,19 @@
         <v>286907</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>259031</v>
+        <v>257999</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>314527</v>
+        <v>315014</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3857338586966912</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3482565426904281</v>
+        <v>0.3468681283873583</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4228678590888421</v>
+        <v>0.4235228185065946</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>283</v>
@@ -3900,19 +3900,19 @@
         <v>296084</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>270381</v>
+        <v>271217</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>321710</v>
+        <v>325462</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3778939778663509</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3450885426095412</v>
+        <v>0.3461557909213729</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4106000134577029</v>
+        <v>0.4153887128397893</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>566</v>
@@ -3921,19 +3921,19 @@
         <v>582991</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>545447</v>
+        <v>542906</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>621812</v>
+        <v>619396</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3817119844285913</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3571301296771317</v>
+        <v>0.3554662238880281</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4071301724785778</v>
+        <v>0.4055480284237763</v>
       </c>
     </row>
     <row r="49">
@@ -3950,19 +3950,19 @@
         <v>183003</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>161449</v>
+        <v>158102</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>208019</v>
+        <v>206745</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2460397715759674</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.217061319946552</v>
+        <v>0.2125615945845827</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2796727618807562</v>
+        <v>0.2779598577164671</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>211</v>
@@ -3971,19 +3971,19 @@
         <v>222394</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>197008</v>
+        <v>198384</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>246286</v>
+        <v>247529</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2838422778517289</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2514421331739214</v>
+        <v>0.2531990770841052</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3143362234678633</v>
+        <v>0.3159222917329517</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>392</v>
@@ -3992,19 +3992,19 @@
         <v>405397</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>370774</v>
+        <v>371995</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>440065</v>
+        <v>441139</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.265432531561781</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.242763457937689</v>
+        <v>0.243563088420483</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.288131224403444</v>
+        <v>0.2888345844155036</v>
       </c>
     </row>
     <row r="50">
@@ -4021,19 +4021,19 @@
         <v>113395</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>94297</v>
+        <v>94844</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>135128</v>
+        <v>134723</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1524549726626716</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1267783639095184</v>
+        <v>0.1275139450341603</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1816736396297007</v>
+        <v>0.1811288717678246</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>141</v>
@@ -4042,19 +4042,19 @@
         <v>150185</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>128649</v>
+        <v>126771</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>176004</v>
+        <v>171530</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1916826904391704</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1641950726526583</v>
+        <v>0.1617983207756865</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2246347297011129</v>
+        <v>0.2189252724382028</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>252</v>
@@ -4063,19 +4063,19 @@
         <v>263581</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>234861</v>
+        <v>235950</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>296342</v>
+        <v>295334</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1725788689483167</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1537747540432422</v>
+        <v>0.1544877569684416</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1940290194205635</v>
+        <v>0.1933692772154195</v>
       </c>
     </row>
     <row r="51">
@@ -4167,19 +4167,19 @@
         <v>68252</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>51165</v>
+        <v>54285</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>86748</v>
+        <v>86723</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02083625562604561</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01561969347838599</v>
+        <v>0.0165724433288598</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02648265359034903</v>
+        <v>0.0264751649147095</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>54</v>
@@ -4188,19 +4188,19 @@
         <v>55655</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>41387</v>
+        <v>41835</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>71511</v>
+        <v>73227</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01646976803847081</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01224761038057971</v>
+        <v>0.01238013299719022</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02116223120500961</v>
+        <v>0.02166998553985662</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>119</v>
@@ -4209,19 +4209,19 @@
         <v>123907</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>103096</v>
+        <v>101922</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>147619</v>
+        <v>147776</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01861904041890844</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01549187633094301</v>
+        <v>0.01531544942740811</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02218212445621518</v>
+        <v>0.02220577626867919</v>
       </c>
     </row>
     <row r="53">
@@ -4238,19 +4238,19 @@
         <v>343006</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>308875</v>
+        <v>310437</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>378197</v>
+        <v>382413</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1047138780329942</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.0942943436190382</v>
+        <v>0.09477108067896767</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1154572269759525</v>
+        <v>0.1167443143651634</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>267</v>
@@ -4259,19 +4259,19 @@
         <v>268347</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>240856</v>
+        <v>238221</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>303314</v>
+        <v>300605</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.07941151010374871</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07127604958603057</v>
+        <v>0.07049619729798275</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.08975919808383821</v>
+        <v>0.08895759082850534</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>600</v>
@@ -4280,19 +4280,19 @@
         <v>611353</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>559598</v>
+        <v>564099</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>656593</v>
+        <v>659592</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.09186584083510031</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.08408876892908972</v>
+        <v>0.08476523461822177</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.09866390389203183</v>
+        <v>0.09911460997097687</v>
       </c>
     </row>
     <row r="54">
@@ -4309,19 +4309,19 @@
         <v>1562822</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1505965</v>
+        <v>1506277</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1621123</v>
+        <v>1617221</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.4771030237041693</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.4597455718300453</v>
+        <v>0.4598408276021684</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4949015845993917</v>
+        <v>0.4937102662122875</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1605</v>
@@ -4330,19 +4330,19 @@
         <v>1633301</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1574544</v>
+        <v>1578974</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1689443</v>
+        <v>1688514</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.4833398703239353</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.4659520780004397</v>
+        <v>0.4672629907903262</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4999538460642532</v>
+        <v>0.4996789490196568</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3140</v>
@@ -4351,19 +4351,19 @@
         <v>3196122</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>3122318</v>
+        <v>3115716</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>3284691</v>
+        <v>3278737</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.4802699698806058</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.4691796158677679</v>
+        <v>0.4681876664139461</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.4935788778568755</v>
+        <v>0.4926841582978392</v>
       </c>
     </row>
     <row r="55">
@@ -4380,19 +4380,19 @@
         <v>705471</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>663211</v>
+        <v>660314</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>752960</v>
+        <v>753841</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2153684656847413</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2024670757929468</v>
+        <v>0.2015827191048645</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2298660091396456</v>
+        <v>0.2301348053192921</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>707</v>
@@ -4401,19 +4401,19 @@
         <v>723115</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>678661</v>
+        <v>674854</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>773408</v>
+        <v>771873</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2139900506861264</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2008349200699437</v>
+        <v>0.1997082967517219</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2288732851008742</v>
+        <v>0.2284189745840967</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1413</v>
@@ -4422,19 +4422,19 @@
         <v>1428586</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1366411</v>
+        <v>1365883</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1496732</v>
+        <v>1494592</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2146685340725751</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2053256702090266</v>
+        <v>0.2052463889295901</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.224908587390006</v>
+        <v>0.2245869762394344</v>
       </c>
     </row>
     <row r="56">
@@ -4451,19 +4451,19 @@
         <v>596097</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>554828</v>
+        <v>549590</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>639851</v>
+        <v>644745</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1819783769520496</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1693794804747126</v>
+        <v>0.1677805306716331</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1953357703297835</v>
+        <v>0.1968297349733381</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>664</v>
@@ -4472,19 +4472,19 @@
         <v>698780</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>648857</v>
+        <v>660169</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>745942</v>
+        <v>751771</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2067888008477187</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1920151334466805</v>
+        <v>0.1953627522576032</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2207453008485209</v>
+        <v>0.2224702218472289</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1238</v>
@@ -4493,19 +4493,19 @@
         <v>1294877</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1231618</v>
+        <v>1231175</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1361041</v>
+        <v>1360597</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1945766147928104</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1850708887747518</v>
+        <v>0.1850043365327224</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2045187637251759</v>
+        <v>0.2044521458939658</v>
       </c>
     </row>
     <row r="57">
@@ -4841,19 +4841,19 @@
         <v>13385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7220</v>
+        <v>7092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23398</v>
+        <v>23501</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04541161176373745</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02449777941284905</v>
+        <v>0.02406252837501678</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07938728648192635</v>
+        <v>0.07973590498875323</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4862,19 +4862,19 @@
         <v>9075</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4141</v>
+        <v>4235</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17718</v>
+        <v>18793</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03170543349136847</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01446769021248595</v>
+        <v>0.01479405338150144</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06190252842862339</v>
+        <v>0.06565642227831735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -4883,19 +4883,19 @@
         <v>22460</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14525</v>
+        <v>14422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34610</v>
+        <v>35083</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03865887337800896</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02500178965074456</v>
+        <v>0.02482348804704924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05957216884116506</v>
+        <v>0.06038722226314844</v>
       </c>
     </row>
     <row r="5">
@@ -4912,19 +4912,19 @@
         <v>27738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18852</v>
+        <v>18813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39494</v>
+        <v>39090</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09410924378289452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06396051538442313</v>
+        <v>0.06383121458244306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1339969460826949</v>
+        <v>0.1326261243546891</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -4933,19 +4933,19 @@
         <v>24975</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15897</v>
+        <v>16949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37149</v>
+        <v>37694</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08725459401755364</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05553874612738932</v>
+        <v>0.05921509693429339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1297867013029765</v>
+        <v>0.131690719981421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -4954,19 +4954,19 @@
         <v>52713</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39388</v>
+        <v>39066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68163</v>
+        <v>69073</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09073210570170848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06779787112548279</v>
+        <v>0.06724231617574707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.117326820452119</v>
+        <v>0.1188929088514804</v>
       </c>
     </row>
     <row r="6">
@@ -4983,19 +4983,19 @@
         <v>73468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59604</v>
+        <v>59364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91331</v>
+        <v>88391</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2492669012461743</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2022266749783411</v>
+        <v>0.2014120003309704</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3098718059987609</v>
+        <v>0.2998967531092306</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>65</v>
@@ -5004,19 +5004,19 @@
         <v>72401</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>56199</v>
+        <v>58105</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>88919</v>
+        <v>88766</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2529469253734873</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1963406568452816</v>
+        <v>0.2030002044330738</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3106530347778429</v>
+        <v>0.3101209350338652</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>136</v>
@@ -5025,19 +5025,19 @@
         <v>145870</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>125025</v>
+        <v>123432</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>168827</v>
+        <v>168100</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2510799697537546</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2152013345567183</v>
+        <v>0.2124581351802203</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2905954572218482</v>
+        <v>0.2893434414760672</v>
       </c>
     </row>
     <row r="7">
@@ -5054,19 +5054,19 @@
         <v>51783</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39016</v>
+        <v>38484</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67255</v>
+        <v>65922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1756901923094575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1323756100274137</v>
+        <v>0.1305694876490503</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2281856374608026</v>
+        <v>0.2236639607187894</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -5075,19 +5075,19 @@
         <v>42059</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30824</v>
+        <v>30049</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56768</v>
+        <v>55224</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1469418230576109</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1076900819612823</v>
+        <v>0.1049802369113517</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1983307405915107</v>
+        <v>0.1929338510836781</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -5096,19 +5096,19 @@
         <v>93842</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76503</v>
+        <v>75847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115337</v>
+        <v>115079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1615264908956652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1316809270438979</v>
+        <v>0.1305533621287389</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1985248858226208</v>
+        <v>0.1980814737330582</v>
       </c>
     </row>
     <row r="8">
@@ -5125,19 +5125,19 @@
         <v>128365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>109552</v>
+        <v>110381</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145733</v>
+        <v>147558</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4355220508977363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3716931550204745</v>
+        <v>0.3745056282182564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4944499268612816</v>
+        <v>0.5006396260025514</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>124</v>
@@ -5146,19 +5146,19 @@
         <v>137720</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>118722</v>
+        <v>120267</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>155494</v>
+        <v>156819</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4811512240599797</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.414777135166127</v>
+        <v>0.4201760210799683</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5432465574838172</v>
+        <v>0.5478766282666309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>248</v>
@@ -5167,19 +5167,19 @@
         <v>266085</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>240248</v>
+        <v>241205</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>292052</v>
+        <v>292539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4580025602708628</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4135296513120786</v>
+        <v>0.4151768318403972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5026973437270803</v>
+        <v>0.50353655201476</v>
       </c>
     </row>
     <row r="9">
@@ -5271,19 +5271,19 @@
         <v>10788</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5013</v>
+        <v>5043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18274</v>
+        <v>19234</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02134017261410183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009916647042888025</v>
+        <v>0.009976557160991101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0361481235408847</v>
+        <v>0.0380465186630803</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -5292,19 +5292,19 @@
         <v>17232</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10100</v>
+        <v>10778</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26497</v>
+        <v>28442</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0329658383344348</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01932144879557138</v>
+        <v>0.02061869799501915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05068944546045201</v>
+        <v>0.05441048781154048</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -5313,19 +5313,19 @@
         <v>28020</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18967</v>
+        <v>19004</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39516</v>
+        <v>39386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02725029082994954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01844591923587611</v>
+        <v>0.01848128616767565</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03842938498871483</v>
+        <v>0.0383030714590929</v>
       </c>
     </row>
     <row r="11">
@@ -5342,19 +5342,19 @@
         <v>57610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44542</v>
+        <v>43448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73150</v>
+        <v>73312</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1139605832409635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08810909807249297</v>
+        <v>0.08594693971821948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1446995122894613</v>
+        <v>0.1450205303938474</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -5363,19 +5363,19 @@
         <v>50871</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38525</v>
+        <v>38399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65481</v>
+        <v>65567</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09731579850303841</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07369778340683883</v>
+        <v>0.07345792121478029</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1252665606080113</v>
+        <v>0.1254306339216546</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -5384,19 +5384,19 @@
         <v>108481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>88813</v>
+        <v>87554</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>130150</v>
+        <v>129251</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1054989047577758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08637172648902067</v>
+        <v>0.08514729265502455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1265726387655134</v>
+        <v>0.1256982761277909</v>
       </c>
     </row>
     <row r="12">
@@ -5413,19 +5413,19 @@
         <v>217457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>193745</v>
+        <v>194413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>241198</v>
+        <v>240856</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4301588206190444</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3832538235166004</v>
+        <v>0.3845747982574217</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.477121849283537</v>
+        <v>0.4764446175247694</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>178</v>
@@ -5434,19 +5434,19 @@
         <v>193294</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>170343</v>
+        <v>170736</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>217300</v>
+        <v>216868</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3697727954824636</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3258672464137004</v>
+        <v>0.3266196448873482</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4156970811941879</v>
+        <v>0.4148700735605856</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>384</v>
@@ -5455,19 +5455,19 @@
         <v>410751</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>381195</v>
+        <v>375104</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>443213</v>
+        <v>441600</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3994604885211108</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3707170359874383</v>
+        <v>0.3647934558264611</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4310302633679055</v>
+        <v>0.4294621235928322</v>
       </c>
     </row>
     <row r="13">
@@ -5484,19 +5484,19 @@
         <v>91878</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74963</v>
+        <v>73816</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109895</v>
+        <v>111737</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1817476626456149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1482872075894417</v>
+        <v>0.1460179700373481</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2173868124923368</v>
+        <v>0.2210310723781326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -5505,19 +5505,19 @@
         <v>118740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99819</v>
+        <v>99682</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142087</v>
+        <v>139168</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2271510330224937</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1909548356024332</v>
+        <v>0.1906919950236967</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.271813187851212</v>
+        <v>0.2662288834639888</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -5526,19 +5526,19 @@
         <v>210619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182931</v>
+        <v>185362</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238557</v>
+        <v>240758</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2048292902083233</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1779024013857569</v>
+        <v>0.1802673186563279</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.231999484571782</v>
+        <v>0.2341406365217595</v>
       </c>
     </row>
     <row r="14">
@@ -5555,19 +5555,19 @@
         <v>127794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109689</v>
+        <v>108742</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148802</v>
+        <v>151355</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2527927608802753</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2169799709901101</v>
+        <v>0.2151062341578833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2943503334149929</v>
+        <v>0.2993995016189365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -5576,19 +5576,19 @@
         <v>142600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121657</v>
+        <v>123811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166095</v>
+        <v>164266</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2727945346575695</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2327311737048373</v>
+        <v>0.2368507567297289</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3177409038879591</v>
+        <v>0.31424233167814</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -5597,19 +5597,19 @@
         <v>270393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>238922</v>
+        <v>241431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>298604</v>
+        <v>301299</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2629610256828406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2323545795820947</v>
+        <v>0.2347948006214255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2903964320685258</v>
+        <v>0.2930172911396859</v>
       </c>
     </row>
     <row r="15">
@@ -5701,19 +5701,19 @@
         <v>4748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1839</v>
+        <v>1845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10287</v>
+        <v>10689</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0146942226351058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005690840000091305</v>
+        <v>0.005708982699449361</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03183712639489025</v>
+        <v>0.03308013626788309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5722,19 +5722,19 @@
         <v>4028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10203</v>
+        <v>10260</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01184679463563791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002917672938606581</v>
+        <v>0.002926321502971901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03000442614527425</v>
+        <v>0.03017301748590518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -5743,19 +5743,19 @@
         <v>8776</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3921</v>
+        <v>4005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15712</v>
+        <v>15518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01323417599830929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005912135694756882</v>
+        <v>0.006039102688283111</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02369290907674913</v>
+        <v>0.02340015859833909</v>
       </c>
     </row>
     <row r="17">
@@ -5772,19 +5772,19 @@
         <v>27037</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18664</v>
+        <v>18040</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39848</v>
+        <v>37701</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0836783365814168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05776445497898763</v>
+        <v>0.05583346108262147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.12332668544935</v>
+        <v>0.116679926939364</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -5793,19 +5793,19 @@
         <v>13824</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7713</v>
+        <v>7814</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21972</v>
+        <v>21691</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04065337875549358</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02268305238798325</v>
+        <v>0.02297861683795224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06461603291157236</v>
+        <v>0.06378956459484771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -5814,19 +5814,19 @@
         <v>40861</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29136</v>
+        <v>30036</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53894</v>
+        <v>55413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06161686742968046</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04393557745754553</v>
+        <v>0.04529255480120006</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08126959700269851</v>
+        <v>0.08356038104559071</v>
       </c>
     </row>
     <row r="18">
@@ -5843,19 +5843,19 @@
         <v>103618</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>85720</v>
+        <v>87494</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119037</v>
+        <v>122099</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3206899184858402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2652947385852671</v>
+        <v>0.2707858883086227</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3684099649365258</v>
+        <v>0.3778871373242372</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -5864,19 +5864,19 @@
         <v>81872</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>67294</v>
+        <v>65719</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99582</v>
+        <v>99772</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.240777351460236</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.197902381169263</v>
+        <v>0.1932725601148075</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2928588166241881</v>
+        <v>0.2934179333384582</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>180</v>
@@ -5885,19 +5885,19 @@
         <v>185491</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>161907</v>
+        <v>163496</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>209196</v>
+        <v>211237</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2797139658909675</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2441501490964411</v>
+        <v>0.2465457785307016</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3154598128935635</v>
+        <v>0.3185383429139865</v>
       </c>
     </row>
     <row r="19">
@@ -5914,19 +5914,19 @@
         <v>103015</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85506</v>
+        <v>87425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118898</v>
+        <v>121971</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3188222668033455</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2646325132300936</v>
+        <v>0.2705735477300803</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3679782342432345</v>
+        <v>0.3774880475556175</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -5935,19 +5935,19 @@
         <v>93583</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76203</v>
+        <v>77202</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112197</v>
+        <v>111266</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2752176142233744</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2241032297597572</v>
+        <v>0.2270433107654206</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3299579113310664</v>
+        <v>0.3272213481647923</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>189</v>
@@ -5956,19 +5956,19 @@
         <v>196598</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>173714</v>
+        <v>171722</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>220939</v>
+        <v>220791</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2964635534803169</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2619549971688572</v>
+        <v>0.2589510396157882</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3331681903961053</v>
+        <v>0.3329450513869537</v>
       </c>
     </row>
     <row r="20">
@@ -5985,19 +5985,19 @@
         <v>84692</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70472</v>
+        <v>70000</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102901</v>
+        <v>101537</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2621152554942917</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2181041278089038</v>
+        <v>0.2166423748045745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3184680851272577</v>
+        <v>0.3142493469226877</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>135</v>
@@ -6006,19 +6006,19 @@
         <v>146726</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>127863</v>
+        <v>128395</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>167124</v>
+        <v>164588</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4315048609252581</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3760288823423025</v>
+        <v>0.3775952528951148</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4914930307706252</v>
+        <v>0.4840350812104008</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>215</v>
@@ -6027,19 +6027,19 @@
         <v>231419</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>206663</v>
+        <v>204899</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>258154</v>
+        <v>256928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3489714372007259</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3116404122399818</v>
+        <v>0.308980529903342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3892872399739438</v>
+        <v>0.387438936942235</v>
       </c>
     </row>
     <row r="21">
@@ -6131,19 +6131,19 @@
         <v>9891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4143</v>
+        <v>4170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19682</v>
+        <v>19423</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0265151989189002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0111077842650078</v>
+        <v>0.01117934728172041</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05276542983968758</v>
+        <v>0.05207083299197663</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6457</v>
+        <v>6544</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004823010268810225</v>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01660196351454441</v>
+        <v>0.01682428321255235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -6173,19 +6173,19 @@
         <v>11767</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5763</v>
+        <v>5928</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22700</v>
+        <v>22367</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01544229149831409</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007563689837681824</v>
+        <v>0.007779677708565255</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02979171228948796</v>
+        <v>0.02935481736490223</v>
       </c>
     </row>
     <row r="23">
@@ -6202,19 +6202,19 @@
         <v>47016</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34812</v>
+        <v>35143</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>61388</v>
+        <v>62091</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1260436626864541</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09332561933390149</v>
+        <v>0.09421409804747828</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1645713044856082</v>
+        <v>0.1664565068609261</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -6223,19 +6223,19 @@
         <v>29074</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19947</v>
+        <v>20516</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39852</v>
+        <v>41133</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07474961279814435</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05128306952574859</v>
+        <v>0.05274773163976273</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1024594588558977</v>
+        <v>0.1057548623077162</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>72</v>
@@ -6244,19 +6244,19 @@
         <v>76090</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>59735</v>
+        <v>61324</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>93032</v>
+        <v>94410</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09986030817105698</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07839562143085831</v>
+        <v>0.08048140085392187</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1220937539803655</v>
+        <v>0.1239028739097563</v>
       </c>
     </row>
     <row r="24">
@@ -6273,19 +6273,19 @@
         <v>126714</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>107867</v>
+        <v>108247</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>145039</v>
+        <v>145265</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3397014545652919</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2891747650855173</v>
+        <v>0.290193297376043</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3888267804140948</v>
+        <v>0.3894313823095549</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>104</v>
@@ -6294,19 +6294,19 @@
         <v>111193</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>93207</v>
+        <v>94134</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>130208</v>
+        <v>130766</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2858796720733454</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2396375965909786</v>
+        <v>0.2420204634242836</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3347676684085786</v>
+        <v>0.3362030059458005</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>227</v>
@@ -6315,19 +6315,19 @@
         <v>237908</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>212474</v>
+        <v>209491</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>265146</v>
+        <v>263535</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3122278038259612</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2788494899957668</v>
+        <v>0.2749336787741756</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3479757303873429</v>
+        <v>0.3458608891730566</v>
       </c>
     </row>
     <row r="25">
@@ -6344,19 +6344,19 @@
         <v>62141</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47937</v>
+        <v>47287</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77702</v>
+        <v>79573</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1665910220102791</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.12851205284747</v>
+        <v>0.1267695286126523</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2083064247093231</v>
+        <v>0.2133231723762905</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>93</v>
@@ -6365,19 +6365,19 @@
         <v>96847</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>80445</v>
+        <v>82230</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113542</v>
+        <v>116915</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2489958742979791</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2068260419103526</v>
+        <v>0.2114152588394635</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2919182972603592</v>
+        <v>0.3005914436929905</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>148</v>
@@ -6386,19 +6386,19 @@
         <v>158988</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>137894</v>
+        <v>134596</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>183382</v>
+        <v>181663</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2086550716600129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1809714252434232</v>
+        <v>0.1766421990435621</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2406690143865732</v>
+        <v>0.2384125086275374</v>
       </c>
     </row>
     <row r="26">
@@ -6415,19 +6415,19 @@
         <v>127254</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>108276</v>
+        <v>108265</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>146650</v>
+        <v>145501</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3411486618190747</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2902713336956168</v>
+        <v>0.2902423523594268</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3931456873117565</v>
+        <v>0.3900662118296674</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>144</v>
@@ -6436,19 +6436,19 @@
         <v>149961</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>129291</v>
+        <v>131778</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169226</v>
+        <v>171155</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3855518305617209</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3324096987157986</v>
+        <v>0.3388039240436707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4350835812802791</v>
+        <v>0.4400424329905558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>257</v>
@@ -6457,19 +6457,19 @@
         <v>277215</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>249551</v>
+        <v>249211</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>303139</v>
+        <v>300959</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3638145248446549</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3275091226140719</v>
+        <v>0.3270618029501368</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.397836919277352</v>
+        <v>0.394975492219176</v>
       </c>
     </row>
     <row r="27">
@@ -6561,19 +6561,19 @@
         <v>4610</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1396</v>
+        <v>1142</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11613</v>
+        <v>12238</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02168125327726819</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006564014144752353</v>
+        <v>0.005370019884733098</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05461895302275706</v>
+        <v>0.05755680395926663</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -6595,19 +6595,19 @@
         <v>4610</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1144</v>
+        <v>1062</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11548</v>
+        <v>11038</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01066573149319044</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002647509660081975</v>
+        <v>0.002457881226284925</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02671941643271034</v>
+        <v>0.02553967384887059</v>
       </c>
     </row>
     <row r="29">
@@ -6624,19 +6624,19 @@
         <v>27076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18729</v>
+        <v>18161</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>39633</v>
+        <v>39012</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1273464873898878</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0880896070377174</v>
+        <v>0.08541405855180284</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1864031092057685</v>
+        <v>0.1834829878853758</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -6645,19 +6645,19 @@
         <v>24550</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16876</v>
+        <v>15420</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>35394</v>
+        <v>35759</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1117975090666931</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07685184606608669</v>
+        <v>0.07022120367803338</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1611817435874361</v>
+        <v>0.1628437893514121</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -6666,19 +6666,19 @@
         <v>51626</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>37601</v>
+        <v>39418</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>67117</v>
+        <v>67612</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1194465700166203</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08699774199778107</v>
+        <v>0.0912012688766405</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.155287524377085</v>
+        <v>0.1564337261233884</v>
       </c>
     </row>
     <row r="30">
@@ -6695,19 +6695,19 @@
         <v>124437</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>109088</v>
+        <v>108291</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>139063</v>
+        <v>139112</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5852617915460331</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5130712490118436</v>
+        <v>0.5093219939499348</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6540519368699204</v>
+        <v>0.6542824095430675</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>104</v>
@@ -6716,19 +6716,19 @@
         <v>106488</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>90055</v>
+        <v>90581</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>119643</v>
+        <v>121066</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4849386987476179</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4101046690838157</v>
+        <v>0.4124999378657506</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5448432609438922</v>
+        <v>0.551324196227029</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>220</v>
@@ -6737,19 +6737,19 @@
         <v>230925</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>209141</v>
+        <v>207525</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>252465</v>
+        <v>252267</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5342909735755768</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4838879525429661</v>
+        <v>0.480150267883791</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.584128076270671</v>
+        <v>0.5836692854535226</v>
       </c>
     </row>
     <row r="31">
@@ -6766,19 +6766,19 @@
         <v>32265</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23037</v>
+        <v>21727</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44428</v>
+        <v>44433</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1517503496957444</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1083487953756001</v>
+        <v>0.1021879660350457</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2089583036677677</v>
+        <v>0.2089792042901052</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>45</v>
@@ -6787,19 +6787,19 @@
         <v>47518</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>37082</v>
+        <v>36624</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>60784</v>
+        <v>60218</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2163946129916521</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1688666631198165</v>
+        <v>0.1667810368736472</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2768046541753648</v>
+        <v>0.274226670612304</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>73</v>
@@ -6808,19 +6808,19 @@
         <v>79783</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>64727</v>
+        <v>63903</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>97943</v>
+        <v>98559</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1845939441801243</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1497576336861915</v>
+        <v>0.1478530482619213</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2266100880529325</v>
+        <v>0.22803596044603</v>
       </c>
     </row>
     <row r="32">
@@ -6837,19 +6837,19 @@
         <v>24230</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16077</v>
+        <v>16340</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34148</v>
+        <v>36235</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1139601180910665</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07561257139402032</v>
+        <v>0.07685096546410689</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1606080224201578</v>
+        <v>0.1704231788199111</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>40</v>
@@ -6858,19 +6858,19 @@
         <v>41035</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29934</v>
+        <v>31054</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>54009</v>
+        <v>53922</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.186869179194037</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1363157809793605</v>
+        <v>0.1414178021958742</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2459507348003149</v>
+        <v>0.2455569313643002</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>63</v>
@@ -6879,19 +6879,19 @@
         <v>65265</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>50734</v>
+        <v>51675</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>81519</v>
+        <v>83114</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1510027807344882</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1173829057141668</v>
+        <v>0.1195593908619212</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1886096637236179</v>
+        <v>0.1923012587704228</v>
       </c>
     </row>
     <row r="33">
@@ -6996,19 +6996,19 @@
         <v>2945</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8120</v>
+        <v>8068</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01055689426173228</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003349714515119319</v>
+        <v>0.003390265098118225</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02910656330273317</v>
+        <v>0.028920812823698</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -7017,19 +7017,19 @@
         <v>2945</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7918</v>
+        <v>10995</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005325997314832153</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00171304542818619</v>
+        <v>0.001725593418541241</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01431940232282448</v>
+        <v>0.01988375488976236</v>
       </c>
     </row>
     <row r="35">
@@ -7046,19 +7046,19 @@
         <v>19854</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13002</v>
+        <v>12793</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>30006</v>
+        <v>29739</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0724662745663525</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0474573204018257</v>
+        <v>0.04669179279791108</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1095188101119139</v>
+        <v>0.1085453664090712</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -7067,19 +7067,19 @@
         <v>11475</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5733</v>
+        <v>5911</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20633</v>
+        <v>20495</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04113594239687215</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02055026077549367</v>
+        <v>0.02118962251278985</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07396494438123709</v>
+        <v>0.07347022058334371</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -7088,19 +7088,19 @@
         <v>31330</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>22210</v>
+        <v>21722</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>44055</v>
+        <v>43248</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05665999093118129</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04016635875376618</v>
+        <v>0.03928395584759797</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07967293511576747</v>
+        <v>0.0782144490136281</v>
       </c>
     </row>
     <row r="36">
@@ -7117,19 +7117,19 @@
         <v>99401</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>82095</v>
+        <v>83374</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>114842</v>
+        <v>115801</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.362804324269431</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2996383262727408</v>
+        <v>0.3043048071244295</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4191620675216318</v>
+        <v>0.4226603896470741</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>59</v>
@@ -7138,19 +7138,19 @@
         <v>60905</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>48280</v>
+        <v>47955</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>76740</v>
+        <v>74355</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2183289914856756</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1730706298024516</v>
+        <v>0.1719044475419567</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2750912851840876</v>
+        <v>0.2665426758023715</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>153</v>
@@ -7159,19 +7159,19 @@
         <v>160307</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>139865</v>
+        <v>139433</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>182541</v>
+        <v>182949</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2899159145356103</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2529458670897246</v>
+        <v>0.2521659169156638</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3301259370927834</v>
+        <v>0.3308644278802906</v>
       </c>
     </row>
     <row r="37">
@@ -7188,19 +7188,19 @@
         <v>78599</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>63763</v>
+        <v>63167</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>95029</v>
+        <v>95180</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.286879247269943</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2327279693964653</v>
+        <v>0.230551022458425</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3468464167432561</v>
+        <v>0.3473967913372602</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>91</v>
@@ -7209,19 +7209,19 @@
         <v>94176</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>80091</v>
+        <v>77774</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>111464</v>
+        <v>108993</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3375958078132019</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2871036146047253</v>
+        <v>0.2787983197784025</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3995662330970571</v>
+        <v>0.3907088112754749</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>166</v>
@@ -7230,19 +7230,19 @@
         <v>172776</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>151490</v>
+        <v>151670</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>196934</v>
+        <v>194995</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3124659642128288</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2739699129018166</v>
+        <v>0.2742952487322154</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3561569541421783</v>
+        <v>0.3526494939346516</v>
       </c>
     </row>
     <row r="38">
@@ -7259,19 +7259,19 @@
         <v>76126</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>61303</v>
+        <v>61472</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>92275</v>
+        <v>91947</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2778501538942735</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.223747875288226</v>
+        <v>0.2243660678152776</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3367943890127381</v>
+        <v>0.3355960975099601</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>105</v>
@@ -7280,19 +7280,19 @@
         <v>109460</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>93159</v>
+        <v>93529</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>125261</v>
+        <v>125951</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3923823640425181</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3339471832635834</v>
+        <v>0.3352754164231929</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4490250750231894</v>
+        <v>0.4514972307163329</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>177</v>
@@ -7301,19 +7301,19 @@
         <v>185585</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>164419</v>
+        <v>163763</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>209185</v>
+        <v>209784</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3356321330055475</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2973526022463866</v>
+        <v>0.2961652499441441</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3783121624297463</v>
+        <v>0.3793945250621402</v>
       </c>
     </row>
     <row r="39">
@@ -7405,19 +7405,19 @@
         <v>2827</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7634</v>
+        <v>7574</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004264964958832249</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0</v>
+        <v>0.001384989703545253</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01151819543040121</v>
+        <v>0.01142804583440886</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>8</v>
@@ -7426,19 +7426,19 @@
         <v>8279</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3971</v>
+        <v>3954</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15712</v>
+        <v>15781</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01193193070584195</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.005722434144197095</v>
+        <v>0.00569877683588182</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02264472404788581</v>
+        <v>0.02274443367315774</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -7447,19 +7447,19 @@
         <v>11106</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6195</v>
+        <v>5929</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>19583</v>
+        <v>20014</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.008186228521475472</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004566304818722531</v>
+        <v>0.004370549254758665</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01443464525476869</v>
+        <v>0.01475263452695179</v>
       </c>
     </row>
     <row r="41">
@@ -7476,19 +7476,19 @@
         <v>56580</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>42597</v>
+        <v>42971</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>72010</v>
+        <v>73649</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08536595752649875</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0642696749375089</v>
+        <v>0.06483300259589342</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1086469866154637</v>
+        <v>0.1111202284269844</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>44</v>
@@ -7497,19 +7497,19 @@
         <v>47905</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>35715</v>
+        <v>35350</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>63910</v>
+        <v>64507</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06904171559161384</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05147407803818375</v>
+        <v>0.05094671556974788</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09210848500506925</v>
+        <v>0.09296973793052116</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>98</v>
@@ -7518,19 +7518,19 @@
         <v>104484</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>84710</v>
+        <v>85379</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>124629</v>
+        <v>126733</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07701693691009613</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06244062695604304</v>
+        <v>0.06293386894125379</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09186558938833317</v>
+        <v>0.09341706997298253</v>
       </c>
     </row>
     <row r="42">
@@ -7547,19 +7547,19 @@
         <v>272539</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>244601</v>
+        <v>242826</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>295296</v>
+        <v>296029</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4112016107909006</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3690481479608931</v>
+        <v>0.36637074943168</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4455354465876376</v>
+        <v>0.4466419772023613</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>236</v>
@@ -7568,19 +7568,19 @@
         <v>257467</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>230807</v>
+        <v>233851</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>284844</v>
+        <v>286743</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3710682564220271</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3326452297437371</v>
+        <v>0.3370324149408638</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4105243979022014</v>
+        <v>0.4132616852472908</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>496</v>
@@ -7589,19 +7589,19 @@
         <v>530006</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>494864</v>
+        <v>494360</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>567392</v>
+        <v>568131</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3906754384658591</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.364771755524639</v>
+        <v>0.3644003259781657</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4182328662116418</v>
+        <v>0.4187780166506463</v>
       </c>
     </row>
     <row r="43">
@@ -7618,19 +7618,19 @@
         <v>166549</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>145115</v>
+        <v>144518</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>194823</v>
+        <v>192498</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2512847787515672</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2189461498511747</v>
+        <v>0.2180455597456803</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2939450929337817</v>
+        <v>0.2904369850014106</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>156</v>
@@ -7639,19 +7639,19 @@
         <v>169616</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>147896</v>
+        <v>144107</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>193806</v>
+        <v>192832</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2444553249455189</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2131512217655531</v>
+        <v>0.2076914799764198</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2793185125432898</v>
+        <v>0.277914809759677</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>310</v>
@@ -7660,19 +7660,19 @@
         <v>336165</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>301661</v>
+        <v>305266</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>368108</v>
+        <v>367679</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2477918600082094</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2223588842279355</v>
+        <v>0.2250161285352634</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2713376657122265</v>
+        <v>0.2710214629072287</v>
       </c>
     </row>
     <row r="44">
@@ -7689,19 +7689,19 @@
         <v>164294</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>140774</v>
+        <v>142728</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>188247</v>
+        <v>190551</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2478826879722012</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2123966121992756</v>
+        <v>0.2153449506120919</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2840225223720346</v>
+        <v>0.2874995850753858</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>192</v>
@@ -7710,19 +7710,19 @@
         <v>210586</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>189210</v>
+        <v>185134</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>239196</v>
+        <v>239977</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3035027723349982</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2726946599799253</v>
+        <v>0.2668195450510555</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.344735858368673</v>
+        <v>0.3458618159053525</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>339</v>
@@ -7731,19 +7731,19 @@
         <v>374880</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>342370</v>
+        <v>342022</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>412969</v>
+        <v>411427</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2763295360943599</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2523659845339586</v>
+        <v>0.2521094433043716</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3044052974627982</v>
+        <v>0.3032688512456461</v>
       </c>
     </row>
     <row r="45">
@@ -7835,19 +7835,19 @@
         <v>12920</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6848</v>
+        <v>6659</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22538</v>
+        <v>22953</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01660577564477353</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.008801205296337704</v>
+        <v>0.008557729601651683</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02896629876330844</v>
+        <v>0.02949976864986192</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -7856,19 +7856,19 @@
         <v>7436</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3178</v>
+        <v>3082</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>14544</v>
+        <v>13862</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009051003478304877</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00386802087649426</v>
+        <v>0.003752097382001011</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01770426728627348</v>
+        <v>0.01687374370653138</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>18</v>
@@ -7877,19 +7877,19 @@
         <v>20356</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>12131</v>
+        <v>12508</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>32636</v>
+        <v>32249</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01272577945255978</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.007584088234555138</v>
+        <v>0.007819800220265717</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02040263762922565</v>
+        <v>0.02016080083886418</v>
       </c>
     </row>
     <row r="47">
@@ -7906,19 +7906,19 @@
         <v>94027</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>76975</v>
+        <v>75267</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>115657</v>
+        <v>112567</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1208468166620153</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0989308941936355</v>
+        <v>0.09673555052056788</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1486456816552454</v>
+        <v>0.1446744441964367</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>100</v>
@@ -7927,19 +7927,19 @@
         <v>106702</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>87159</v>
+        <v>88772</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>126864</v>
+        <v>130055</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1298837971496591</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1060953488630054</v>
+        <v>0.1080584330885112</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1544255283291585</v>
+        <v>0.1583099013892242</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>187</v>
@@ -7948,19 +7948,19 @@
         <v>200729</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>174341</v>
+        <v>172443</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>227995</v>
+        <v>229235</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1254880486023768</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1089908100888859</v>
+        <v>0.1078046587332491</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1425335747503684</v>
+        <v>0.1433088628562817</v>
       </c>
     </row>
     <row r="48">
@@ -7977,19 +7977,19 @@
         <v>275623</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>246886</v>
+        <v>247879</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>303561</v>
+        <v>304015</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3542391704705857</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3173056206580884</v>
+        <v>0.3185825040024682</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3901471494894083</v>
+        <v>0.3907299533052483</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>307</v>
@@ -7998,19 +7998,19 @@
         <v>331274</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>302820</v>
+        <v>301685</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>359517</v>
+        <v>362416</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4032454143231627</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3686088155973641</v>
+        <v>0.3672275946254272</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4376236578249747</v>
+        <v>0.4411523800524377</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>566</v>
@@ -8019,19 +8019,19 @@
         <v>606897</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>566757</v>
+        <v>566045</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>652042</v>
+        <v>646552</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3794079029423125</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3543139999261908</v>
+        <v>0.3538687875727696</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4076311176982898</v>
+        <v>0.4041987694671733</v>
       </c>
     </row>
     <row r="49">
@@ -8048,19 +8048,19 @@
         <v>136147</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>114753</v>
+        <v>116154</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>160078</v>
+        <v>160163</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1749805220009258</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1474841333316614</v>
+        <v>0.1492843634223701</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2057380899406323</v>
+        <v>0.2058465604959432</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>126</v>
@@ -8069,19 +8069,19 @@
         <v>138309</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>116747</v>
+        <v>119318</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>162390</v>
+        <v>161782</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.168357660036678</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1421105696865539</v>
+        <v>0.1452401514833192</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1976707530591105</v>
+        <v>0.1969306673366818</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>248</v>
@@ -8090,19 +8090,19 @@
         <v>274456</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>242881</v>
+        <v>244831</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>303916</v>
+        <v>304631</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1715791382614013</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1518399160768452</v>
+        <v>0.1530589259886838</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1899966066298797</v>
+        <v>0.1904430389624016</v>
       </c>
     </row>
     <row r="50">
@@ -8119,19 +8119,19 @@
         <v>259352</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>231806</v>
+        <v>233129</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>286251</v>
+        <v>287143</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3333277152216996</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2979243936018498</v>
+        <v>0.2996246502680167</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3678992828271028</v>
+        <v>0.3690457736085812</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>215</v>
@@ -8140,19 +8140,19 @@
         <v>237799</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>212632</v>
+        <v>211223</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>265463</v>
+        <v>267099</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2894621250121954</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2588278070539225</v>
+        <v>0.2571126179493268</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3231366891401586</v>
+        <v>0.3251277946484148</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>452</v>
@@ -8161,19 +8161,19 @@
         <v>497151</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>458801</v>
+        <v>460348</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>535044</v>
+        <v>536452</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3107991307413497</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2868245269022351</v>
+        <v>0.2877914841748613</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3344881386839197</v>
+        <v>0.3353689594941661</v>
       </c>
     </row>
     <row r="51">
@@ -8265,19 +8265,19 @@
         <v>59168</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>44377</v>
+        <v>44471</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>74957</v>
+        <v>79117</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01728115843995079</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01296119301040158</v>
+        <v>0.01298859106119925</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02189269242977118</v>
+        <v>0.02310761473151063</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>49</v>
@@ -8286,19 +8286,19 @@
         <v>50871</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>37895</v>
+        <v>37216</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>65675</v>
+        <v>64961</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01432236681212747</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01066896831750081</v>
+        <v>0.01047783278194665</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01849023529038519</v>
+        <v>0.0182893168794003</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>104</v>
@@ -8307,19 +8307,19 @@
         <v>110039</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>91786</v>
+        <v>92633</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>134390</v>
+        <v>132664</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01577461025745332</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01315785377903081</v>
+        <v>0.01327934088007964</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01926534356637126</v>
+        <v>0.01901791839220411</v>
       </c>
     </row>
     <row r="53">
@@ -8336,19 +8336,19 @@
         <v>356939</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>319862</v>
+        <v>324519</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>397425</v>
+        <v>394345</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1042507331275394</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.09342168739003741</v>
+        <v>0.09478195444007786</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1160756084975566</v>
+        <v>0.1151758842070489</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>288</v>
@@ -8357,19 +8357,19 @@
         <v>309375</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>278830</v>
+        <v>277974</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>345151</v>
+        <v>347464</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.08710179654012423</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07850222629443165</v>
+        <v>0.07826119981957554</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0971741082348901</v>
+        <v>0.09782546919965306</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>627</v>
@@ -8378,19 +8378,19 @@
         <v>666314</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>616238</v>
+        <v>621682</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>720858</v>
+        <v>719385</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.09551889172154585</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.08834034451507991</v>
+        <v>0.08912068756807717</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1033380933850468</v>
+        <v>0.1031268985511782</v>
       </c>
     </row>
     <row r="54">
@@ -8407,19 +8407,19 @@
         <v>1293259</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1233510</v>
+        <v>1235072</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1354198</v>
+        <v>1352927</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3777207816017501</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3602698559317137</v>
+        <v>0.360726122600744</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3955191613233451</v>
+        <v>0.3951479306949963</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1128</v>
@@ -8428,19 +8428,19 @@
         <v>1214896</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1156574</v>
+        <v>1154199</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1274468</v>
+        <v>1274886</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3420430465548482</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3256230030985838</v>
+        <v>0.3249543658665077</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3588152116550628</v>
+        <v>0.3589328202024042</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2362</v>
@@ -8449,19 +8449,19 @@
         <v>2508154</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2432295</v>
+        <v>2427968</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2595380</v>
+        <v>2595168</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3595545050768708</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3486796800649412</v>
+        <v>0.3480593869093448</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3720586417089939</v>
+        <v>0.37202821488497</v>
       </c>
     </row>
     <row r="55">
@@ -8478,19 +8478,19 @@
         <v>722377</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>675392</v>
+        <v>675655</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>771165</v>
+        <v>775198</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2109838852854016</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1972610865534791</v>
+        <v>0.1973379590661228</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2252333446406928</v>
+        <v>0.2264112946537177</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>743</v>
@@ -8499,19 +8499,19 @@
         <v>800850</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>745755</v>
+        <v>748335</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>846892</v>
+        <v>850516</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2254722238555406</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2099606088609185</v>
+        <v>0.2106871524008802</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2384348814334864</v>
+        <v>0.2394552594112742</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1409</v>
@@ -8520,19 +8520,19 @@
         <v>1523227</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1452283</v>
+        <v>1451671</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1600767</v>
+        <v>1592460</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2183610117903554</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2081909341292402</v>
+        <v>0.2081031484478512</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2294766347418482</v>
+        <v>0.2282858140640684</v>
       </c>
     </row>
     <row r="56">
@@ -8549,19 +8549,19 @@
         <v>992106</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>939393</v>
+        <v>937414</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1052313</v>
+        <v>1048698</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2897634415453582</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2743674417817206</v>
+        <v>0.2737895468089789</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3073479225019144</v>
+        <v>0.3062920047145535</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1084</v>
@@ -8570,19 +8570,19 @@
         <v>1175887</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1121921</v>
+        <v>1113661</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1237371</v>
+        <v>1234221</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3310605662373596</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3158669213877169</v>
+        <v>0.3135414334082601</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3483708841811725</v>
+        <v>0.3474838297131388</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1996</v>
@@ -8591,19 +8591,19 @@
         <v>2167993</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2079528</v>
+        <v>2084728</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2247515</v>
+        <v>2246182</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3107909811537747</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2981090982515354</v>
+        <v>0.2988545190095565</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3221906870692582</v>
+        <v>0.3219996760947431</v>
       </c>
     </row>
     <row r="57">
@@ -8939,19 +8939,19 @@
         <v>6585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2742</v>
+        <v>2592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14854</v>
+        <v>13228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02241726780910283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009333621891937214</v>
+        <v>0.008824518943567877</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05056428670787858</v>
+        <v>0.04502966870976056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -8960,19 +8960,19 @@
         <v>7955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3817</v>
+        <v>3797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14402</v>
+        <v>14232</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02755319608266053</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01322152150187896</v>
+        <v>0.01315237887943211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04988645851894325</v>
+        <v>0.04929498998567949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -8981,19 +8981,19 @@
         <v>14540</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8454</v>
+        <v>8271</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23862</v>
+        <v>23857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02496293225853649</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01451495116897676</v>
+        <v>0.01420044227604695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04096709523653756</v>
+        <v>0.04095808357132615</v>
       </c>
     </row>
     <row r="5">
@@ -9010,19 +9010,19 @@
         <v>26351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16817</v>
+        <v>16878</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37538</v>
+        <v>38172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08970089496980772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05724717165272751</v>
+        <v>0.05745384715844057</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1277852161699707</v>
+        <v>0.1299408682546857</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -9031,19 +9031,19 @@
         <v>18225</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10739</v>
+        <v>10900</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27641</v>
+        <v>26751</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06312875155761284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0371974361786884</v>
+        <v>0.03775347334168989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09574365674459406</v>
+        <v>0.09265854133753455</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -9052,19 +9052,19 @@
         <v>44576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33171</v>
+        <v>32030</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57593</v>
+        <v>58792</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07653019685512787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05694908455420279</v>
+        <v>0.05498980818689229</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09887774979307914</v>
+        <v>0.1009361704339674</v>
       </c>
     </row>
     <row r="6">
@@ -9081,19 +9081,19 @@
         <v>96308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80666</v>
+        <v>81262</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113775</v>
+        <v>115503</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3278451454851599</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2745969570364501</v>
+        <v>0.276627763049501</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3873049994824441</v>
+        <v>0.3931856714011825</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -9102,19 +9102,19 @@
         <v>65580</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52576</v>
+        <v>51806</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81458</v>
+        <v>79631</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2271532213634259</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1821115428209291</v>
+        <v>0.1794428302666023</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2821526948596917</v>
+        <v>0.2758233339487644</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>152</v>
@@ -9123,19 +9123,19 @@
         <v>161888</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>140188</v>
+        <v>139798</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>183780</v>
+        <v>183602</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.277936377696974</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2406804897420514</v>
+        <v>0.2400115457536293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3155218591006521</v>
+        <v>0.3152161220119686</v>
       </c>
     </row>
     <row r="7">
@@ -9152,19 +9152,19 @@
         <v>80648</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65384</v>
+        <v>65102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95963</v>
+        <v>96372</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2745361855048879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2225761858337587</v>
+        <v>0.2216165880265651</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3266690132740195</v>
+        <v>0.3280632853640991</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -9173,19 +9173,19 @@
         <v>92489</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76400</v>
+        <v>77463</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109606</v>
+        <v>109877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.320361395057905</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2646317758572894</v>
+        <v>0.2683149974619374</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3796503909409198</v>
+        <v>0.3805879591608959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -9194,19 +9194,19 @@
         <v>173137</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150469</v>
+        <v>151212</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199546</v>
+        <v>195729</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2972498218006991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2583314208773236</v>
+        <v>0.2596080704251666</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3425902483935104</v>
+        <v>0.3360364329609327</v>
       </c>
     </row>
     <row r="8">
@@ -9223,19 +9223,19 @@
         <v>83869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68444</v>
+        <v>67285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99820</v>
+        <v>100952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2855005062310416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2329929359224296</v>
+        <v>0.2290455701839029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3398006331661083</v>
+        <v>0.3436525682670527</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>97</v>
@@ -9244,19 +9244,19 @@
         <v>104454</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>87967</v>
+        <v>88310</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>121511</v>
+        <v>121592</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3618034359383957</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3046972248054463</v>
+        <v>0.3058836439062799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.420884514547869</v>
+        <v>0.421166903490829</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>173</v>
@@ -9265,19 +9265,19 @@
         <v>188323</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167499</v>
+        <v>166529</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>215658</v>
+        <v>210231</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3233206713886625</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2875692651479724</v>
+        <v>0.285905106562563</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3702517170255291</v>
+        <v>0.3609335975762072</v>
       </c>
     </row>
     <row r="9">
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6048</v>
+        <v>5307</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002102307593544496</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01205995198118943</v>
+        <v>0.01058251548588427</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -9390,19 +9390,19 @@
         <v>7941</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3308</v>
+        <v>3202</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17287</v>
+        <v>17831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01521524201494345</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006337523861304498</v>
+        <v>0.00613490467001504</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03312123797538503</v>
+        <v>0.03416337469200328</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -9411,19 +9411,19 @@
         <v>8996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4226</v>
+        <v>3580</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18809</v>
+        <v>18276</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008789597211211498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004129424802416528</v>
+        <v>0.003497614383514504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01837740564167716</v>
+        <v>0.01785748766619088</v>
       </c>
     </row>
     <row r="11">
@@ -9440,19 +9440,19 @@
         <v>136832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116931</v>
+        <v>117310</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>157430</v>
+        <v>157692</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2728348933242017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2331526628087883</v>
+        <v>0.2339077063934505</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3139060587569832</v>
+        <v>0.3144277506837244</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -9461,19 +9461,19 @@
         <v>120635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102600</v>
+        <v>101457</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139425</v>
+        <v>140387</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2311269983430561</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1965743065087525</v>
+        <v>0.1943833585780875</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2671265378817926</v>
+        <v>0.2689700972059473</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>246</v>
@@ -9482,19 +9482,19 @@
         <v>257467</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>232442</v>
+        <v>228470</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>284909</v>
+        <v>285420</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2515648431493908</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2271128670223942</v>
+        <v>0.2232319668795326</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.278377356645673</v>
+        <v>0.2788764212635178</v>
       </c>
     </row>
     <row r="12">
@@ -9511,19 +9511,19 @@
         <v>227378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>203974</v>
+        <v>205102</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>249855</v>
+        <v>248831</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.453376518696216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.406711241958749</v>
+        <v>0.4089598702651378</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4981938776468138</v>
+        <v>0.4961530207179179</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>235</v>
@@ -9532,19 +9532,19 @@
         <v>252260</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>228760</v>
+        <v>228326</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>275126</v>
+        <v>275569</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4833100763049581</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4382866535384649</v>
+        <v>0.4374550028160574</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5271200360708302</v>
+        <v>0.5279695654995712</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>449</v>
@@ -9553,19 +9553,19 @@
         <v>479638</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>446187</v>
+        <v>445315</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>511569</v>
+        <v>511005</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4686419324155216</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4359585281888897</v>
+        <v>0.4351056472218029</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4998410633197404</v>
+        <v>0.4992905244179898</v>
       </c>
     </row>
     <row r="13">
@@ -9582,19 +9582,19 @@
         <v>61875</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48023</v>
+        <v>48146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78314</v>
+        <v>77447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1233742017201192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09575459816777587</v>
+        <v>0.09600072384793286</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1561522801992524</v>
+        <v>0.1544251806126221</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -9603,19 +9603,19 @@
         <v>58619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44995</v>
+        <v>43826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74619</v>
+        <v>75056</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1123094622639521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08620668063869788</v>
+        <v>0.08396661454773366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1429636243572706</v>
+        <v>0.1438006435221922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -9624,19 +9624,19 @@
         <v>120494</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100794</v>
+        <v>100054</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144287</v>
+        <v>142273</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.117731443592185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09848359594391612</v>
+        <v>0.09776033872175718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1409796931085897</v>
+        <v>0.1390115865953672</v>
       </c>
     </row>
     <row r="14">
@@ -9653,19 +9653,19 @@
         <v>74382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58310</v>
+        <v>58850</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90817</v>
+        <v>91586</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1483120786659186</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1162669970278459</v>
+        <v>0.117342560446231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1810828029575763</v>
+        <v>0.1826161599262099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -9674,19 +9674,19 @@
         <v>82487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>66275</v>
+        <v>66215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101027</v>
+        <v>100659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1580382210730902</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1269777848899495</v>
+        <v>0.126863460285782</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.193559812198411</v>
+        <v>0.1928544226377514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>143</v>
@@ -9695,19 +9695,19 @@
         <v>156868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>134931</v>
+        <v>135114</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>180675</v>
+        <v>183481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.153272183631691</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1318380221911221</v>
+        <v>0.1320168325494664</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1765332360272858</v>
+        <v>0.1792751594027383</v>
       </c>
     </row>
     <row r="15">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5379</v>
+        <v>5676</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00294244517120393</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01693591909344288</v>
+        <v>0.01787029975718922</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5173</v>
+        <v>4634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002762423698863524</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01538105583922266</v>
+        <v>0.01377825816105654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6450</v>
+        <v>5634</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002849859344106519</v>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009864049968537358</v>
+        <v>0.008616232691736928</v>
       </c>
     </row>
     <row r="17">
@@ -9870,19 +9870,19 @@
         <v>14117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8530</v>
+        <v>8172</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22797</v>
+        <v>22359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04445036588208698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02685805069639116</v>
+        <v>0.02572907956699181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07177905417502443</v>
+        <v>0.07039922126230193</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -9891,19 +9891,19 @@
         <v>8655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4263</v>
+        <v>3905</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17414</v>
+        <v>15479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02573457542365663</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0126759823389225</v>
+        <v>0.01161158573488319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05177870072483857</v>
+        <v>0.04602579741069123</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -9912,19 +9912,19 @@
         <v>22772</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14276</v>
+        <v>15231</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33604</v>
+        <v>33295</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03482475335460477</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02183118751541671</v>
+        <v>0.02329253643954366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05138960400628122</v>
+        <v>0.05091621845874222</v>
       </c>
     </row>
     <row r="18">
@@ -9941,19 +9941,19 @@
         <v>174290</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>156913</v>
+        <v>156483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190354</v>
+        <v>189533</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5487711045835124</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4940562637002308</v>
+        <v>0.4927029878699989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5993488305643072</v>
+        <v>0.5967653250061923</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>170</v>
@@ -9962,19 +9962,19 @@
         <v>165944</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146347</v>
+        <v>147236</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>183902</v>
+        <v>184432</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4934262897901023</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4351576405682117</v>
+        <v>0.4378007492733316</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5468237938208649</v>
+        <v>0.5483993245961389</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>350</v>
@@ -9983,19 +9983,19 @@
         <v>340234</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>313443</v>
+        <v>313492</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>363580</v>
+        <v>363261</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5203070253457227</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4793371464559472</v>
+        <v>0.4794113486749559</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5560094952755471</v>
+        <v>0.5555215898469236</v>
       </c>
     </row>
     <row r="19">
@@ -10012,19 +10012,19 @@
         <v>92795</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76014</v>
+        <v>79366</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108273</v>
+        <v>109225</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2921737850543962</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2393392270295567</v>
+        <v>0.2498923892183509</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3409090762165162</v>
+        <v>0.3439070818633051</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -10033,19 +10033,19 @@
         <v>117280</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>99021</v>
+        <v>100882</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>136216</v>
+        <v>137598</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3487272945200334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2944331325525369</v>
+        <v>0.2999688348512993</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4050314258351251</v>
+        <v>0.4091407012518467</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>212</v>
@@ -10054,19 +10054,19 @@
         <v>210075</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>188184</v>
+        <v>187555</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>232439</v>
+        <v>235766</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3212595012251667</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2877824013662982</v>
+        <v>0.2868205891588184</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3554600651668849</v>
+        <v>0.3605484393921103</v>
       </c>
     </row>
     <row r="20">
@@ -10083,19 +10083,19 @@
         <v>35464</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24412</v>
+        <v>25911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46805</v>
+        <v>47649</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1116622993088005</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07686286574456618</v>
+        <v>0.08158314860244797</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.14736896064468</v>
+        <v>0.1500283735011606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -10104,19 +10104,19 @@
         <v>43501</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32443</v>
+        <v>33076</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57727</v>
+        <v>58492</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1293494165673441</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09646663615136762</v>
+        <v>0.09834893277300921</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1716482518801029</v>
+        <v>0.1739247239669281</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>79</v>
@@ -10125,19 +10125,19 @@
         <v>78965</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63384</v>
+        <v>63580</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97642</v>
+        <v>96599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1207588607303993</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09693076149989066</v>
+        <v>0.097230638644229</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1493203476217916</v>
+        <v>0.1477252499425299</v>
       </c>
     </row>
     <row r="21">
@@ -10229,19 +10229,19 @@
         <v>11074</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4930</v>
+        <v>5408</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19872</v>
+        <v>20404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03000976618206261</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01336183706723056</v>
+        <v>0.01465703688490675</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05385362136689182</v>
+        <v>0.0552965880581017</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -10250,19 +10250,19 @@
         <v>4660</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1790</v>
+        <v>1797</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10494</v>
+        <v>10152</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01203312502975703</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004622752520719875</v>
+        <v>0.004640965650435341</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0270976475622035</v>
+        <v>0.02621294976775796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -10271,19 +10271,19 @@
         <v>15734</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9119</v>
+        <v>9100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25496</v>
+        <v>26075</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02080412966877993</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01205829229966787</v>
+        <v>0.01203299113835899</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03371287787595834</v>
+        <v>0.03447837943564536</v>
       </c>
     </row>
     <row r="23">
@@ -10300,19 +10300,19 @@
         <v>96226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79350</v>
+        <v>79756</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>114439</v>
+        <v>113736</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2607776070418878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2150420310811735</v>
+        <v>0.2161410616271261</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3101333199166496</v>
+        <v>0.3082286395791475</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>55</v>
@@ -10321,19 +10321,19 @@
         <v>57416</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>44432</v>
+        <v>44459</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>73319</v>
+        <v>73156</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1482538302701222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1147273515594994</v>
+        <v>0.1147974582138682</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1893166884846944</v>
+        <v>0.188894696171591</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>144</v>
@@ -10342,19 +10342,19 @@
         <v>153643</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>131164</v>
+        <v>131113</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>175515</v>
+        <v>178330</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2031554417393456</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1734323415600114</v>
+        <v>0.1733648275880023</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2320767340073216</v>
+        <v>0.235798522169828</v>
       </c>
     </row>
     <row r="24">
@@ -10371,19 +10371,19 @@
         <v>116086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>98810</v>
+        <v>97186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>134354</v>
+        <v>135057</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3145988224438132</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2677781267274822</v>
+        <v>0.2633792586471398</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3641051040369894</v>
+        <v>0.3660111233978729</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>106</v>
@@ -10392,19 +10392,19 @@
         <v>111953</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>93762</v>
+        <v>93998</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>131277</v>
+        <v>130439</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2890738106071611</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2421013341697028</v>
+        <v>0.2427115303231694</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3389701802490433</v>
+        <v>0.3368046320301171</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>220</v>
@@ -10413,19 +10413,19 @@
         <v>228040</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>202823</v>
+        <v>202660</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>255628</v>
+        <v>255231</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3015277498794415</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2681843270116642</v>
+        <v>0.2679688644898517</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3380072704598021</v>
+        <v>0.3374815340381075</v>
       </c>
     </row>
     <row r="25">
@@ -10442,19 +10442,19 @@
         <v>84298</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68952</v>
+        <v>68948</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100670</v>
+        <v>102827</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2284502868849559</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1868621518568621</v>
+        <v>0.1868528644161007</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2728209394570541</v>
+        <v>0.2786658770330492</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -10463,19 +10463,19 @@
         <v>93217</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74727</v>
+        <v>77838</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>109285</v>
+        <v>111781</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2406959634495358</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1929526008351275</v>
+        <v>0.200984060334076</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2821845684896782</v>
+        <v>0.2886282680989811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>166</v>
@@ -10484,19 +10484,19 @@
         <v>177515</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>155762</v>
+        <v>153763</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>202816</v>
+        <v>203967</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.234721160645947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2059572384298344</v>
+        <v>0.2033147526699226</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2681748911624637</v>
+        <v>0.2696979820515749</v>
       </c>
     </row>
     <row r="26">
@@ -10513,19 +10513,19 @@
         <v>61314</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46160</v>
+        <v>47131</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76429</v>
+        <v>75005</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1661635174472804</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1250953199181392</v>
+        <v>0.1277268233433993</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2071261909894692</v>
+        <v>0.2032656994211332</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>106</v>
@@ -10534,19 +10534,19 @@
         <v>120036</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102815</v>
+        <v>101565</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141670</v>
+        <v>140062</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3099432706434239</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2654777983268767</v>
+        <v>0.2622493130443719</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3658041949635612</v>
+        <v>0.3616532102045988</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>166</v>
@@ -10555,19 +10555,19 @@
         <v>181350</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>159760</v>
+        <v>157974</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>207384</v>
+        <v>208790</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2397915180664859</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2112436337753634</v>
+        <v>0.2088833112758328</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2742155516474398</v>
+        <v>0.2760751918500652</v>
       </c>
     </row>
     <row r="27">
@@ -10659,19 +10659,19 @@
         <v>2853</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7713</v>
+        <v>7695</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01350826075478628</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004421613572135928</v>
+        <v>0.004417212370141863</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03651581000418348</v>
+        <v>0.03642885925738243</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -10693,19 +10693,19 @@
         <v>2853</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7513</v>
+        <v>7574</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006638378841074865</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002161327252665501</v>
+        <v>0.002172832166780644</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0174792050768936</v>
+        <v>0.0176229592681249</v>
       </c>
     </row>
     <row r="29">
@@ -10722,19 +10722,19 @@
         <v>12433</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6597</v>
+        <v>6873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21644</v>
+        <v>21101</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05886299776149032</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0312323949688789</v>
+        <v>0.0325400387771263</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1024688357453667</v>
+        <v>0.09989934313760192</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -10756,19 +10756,19 @@
         <v>12433</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7070</v>
+        <v>6340</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21808</v>
+        <v>20718</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02892710512148362</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01644870104915724</v>
+        <v>0.01474968878377227</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05073840775168588</v>
+        <v>0.04820240382203086</v>
       </c>
     </row>
     <row r="30">
@@ -10785,19 +10785,19 @@
         <v>36681</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27169</v>
+        <v>26647</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49241</v>
+        <v>48520</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1736625973548434</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1286266778165275</v>
+        <v>0.1261553869896123</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2331235857520522</v>
+        <v>0.2297137214017929</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>46</v>
@@ -10806,19 +10806,19 @@
         <v>44538</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33493</v>
+        <v>33063</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57697</v>
+        <v>56519</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2037544394875831</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1532243723430776</v>
+        <v>0.1512570778916894</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2639522689226179</v>
+        <v>0.2585656660052529</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>83</v>
@@ -10827,19 +10827,19 @@
         <v>81219</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65405</v>
+        <v>66666</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>98020</v>
+        <v>99283</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1889663737455027</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1521727123976638</v>
+        <v>0.1551054490840955</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2280547176094153</v>
+        <v>0.230994908356008</v>
       </c>
     </row>
     <row r="31">
@@ -10856,19 +10856,19 @@
         <v>135246</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>121037</v>
+        <v>120988</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>148798</v>
+        <v>148543</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6403078569707342</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.57303371477461</v>
+        <v>0.5728014183090896</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7044672736918725</v>
+        <v>0.7032563816273852</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>145</v>
@@ -10877,19 +10877,19 @@
         <v>141767</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>127366</v>
+        <v>126792</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>154238</v>
+        <v>156199</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6485600502795634</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5826792540475321</v>
+        <v>0.5800539387871796</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7056138218785064</v>
+        <v>0.7145854805442837</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>280</v>
@@ -10898,19 +10898,19 @@
         <v>277013</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>255988</v>
+        <v>254802</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>295857</v>
+        <v>294376</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6445046662113827</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.595586579314747</v>
+        <v>0.5928278965789249</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6883480089426732</v>
+        <v>0.684901989853212</v>
       </c>
     </row>
     <row r="32">
@@ -10927,19 +10927,19 @@
         <v>24007</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16336</v>
+        <v>16759</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34606</v>
+        <v>34476</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1136582871581458</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07734125519415856</v>
+        <v>0.07934518179146327</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1638363776149139</v>
+        <v>0.163222122389416</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -10948,19 +10948,19 @@
         <v>32282</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22416</v>
+        <v>23477</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43669</v>
+        <v>45221</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1476855102328534</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1025509631170318</v>
+        <v>0.1074021343523829</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1997787521866131</v>
+        <v>0.2068774053391093</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>57</v>
@@ -10969,19 +10969,19 @@
         <v>56289</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>43844</v>
+        <v>43672</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>71157</v>
+        <v>71200</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1309634760805561</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1020077769507165</v>
+        <v>0.1016085305481413</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1655555629997861</v>
+        <v>0.1656555977123474</v>
       </c>
     </row>
     <row r="33">
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9335</v>
+        <v>9330</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009815977565691861</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03547656609595155</v>
+        <v>0.03545996847926397</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5345</v>
+        <v>5389</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003533536980425658</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01957229058785945</v>
+        <v>0.01973249342437423</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -11115,19 +11115,19 @@
         <v>3548</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11393</v>
+        <v>9623</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.006616225283294704</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00173358656063813</v>
+        <v>0.001739018466045618</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02124695679037038</v>
+        <v>0.01794561665512404</v>
       </c>
     </row>
     <row r="35">
@@ -11144,19 +11144,19 @@
         <v>13967</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8143</v>
+        <v>8102</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23018</v>
+        <v>22749</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05308238659115912</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03094607973513481</v>
+        <v>0.03079060786964554</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08748105638300031</v>
+        <v>0.08645718998690563</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -11165,19 +11165,19 @@
         <v>11501</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5757</v>
+        <v>5939</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19581</v>
+        <v>19114</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04210975123322191</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02107920743056822</v>
+        <v>0.02174588723797687</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0716951283740931</v>
+        <v>0.06998380939368584</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>26</v>
@@ -11186,19 +11186,19 @@
         <v>25468</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17170</v>
+        <v>17138</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>37340</v>
+        <v>35877</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04749383950440882</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03201985733314244</v>
+        <v>0.03196054153270402</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06963324076407515</v>
+        <v>0.06690452021331443</v>
       </c>
     </row>
     <row r="36">
@@ -11215,19 +11215,19 @@
         <v>88817</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>73768</v>
+        <v>74474</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>104661</v>
+        <v>105411</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3375487214797055</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2803563007906646</v>
+        <v>0.2830375832792991</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3977630992646244</v>
+        <v>0.4006138700444897</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>53</v>
@@ -11236,19 +11236,19 @@
         <v>52165</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>41153</v>
+        <v>40583</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>68341</v>
+        <v>66798</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1910014686893597</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1506792035988345</v>
+        <v>0.1485916152675705</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2502272508144759</v>
+        <v>0.2445791191222811</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>140</v>
@@ -11257,19 +11257,19 @@
         <v>140982</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>118800</v>
+        <v>121191</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>160215</v>
+        <v>162487</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2629097495338891</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2215442086644623</v>
+        <v>0.2260027737202536</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2987765132271361</v>
+        <v>0.3030125956546657</v>
       </c>
     </row>
     <row r="37">
@@ -11286,19 +11286,19 @@
         <v>53715</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>42873</v>
+        <v>40652</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>69208</v>
+        <v>67067</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2041426560789389</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1629375815196021</v>
+        <v>0.1544965216729814</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2630265125060255</v>
+        <v>0.2548897435957429</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>71</v>
@@ -11307,19 +11307,19 @@
         <v>72212</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57409</v>
+        <v>59492</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>87921</v>
+        <v>86825</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2644001125012588</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2102020166801328</v>
+        <v>0.2178271782943939</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3219183024680529</v>
+        <v>0.3179070733519807</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>124</v>
@@ -11328,19 +11328,19 @@
         <v>125926</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>106323</v>
+        <v>107143</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>146452</v>
+        <v>146904</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2348327885365299</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1982765201033054</v>
+        <v>0.199804817321407</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2731104687013154</v>
+        <v>0.273952992298725</v>
       </c>
     </row>
     <row r="38">
@@ -11357,19 +11357,19 @@
         <v>104042</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>89342</v>
+        <v>87656</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>121817</v>
+        <v>120323</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3954102582845046</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3395452877070261</v>
+        <v>0.3331381146818724</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4629643715407882</v>
+        <v>0.4572890265252971</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>126</v>
@@ -11378,19 +11378,19 @@
         <v>136272</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>118215</v>
+        <v>120262</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>152382</v>
+        <v>150824</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4989551305957339</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4328402444154321</v>
+        <v>0.4403343150639655</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5579408176091379</v>
+        <v>0.552234511896322</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>229</v>
@@ -11399,19 +11399,19 @@
         <v>240314</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>219097</v>
+        <v>218475</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>263141</v>
+        <v>262167</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4481473971418774</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4085811228095916</v>
+        <v>0.4074208479801619</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4907164475491587</v>
+        <v>0.4889009657463148</v>
       </c>
     </row>
     <row r="39">
@@ -11503,19 +11503,19 @@
         <v>6422</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2194</v>
+        <v>2215</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14134</v>
+        <v>12714</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.009847712136114444</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003364720518855975</v>
+        <v>0.003396512901057701</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02167204543822626</v>
+        <v>0.01949431085688352</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>15</v>
@@ -11524,19 +11524,19 @@
         <v>15541</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>8931</v>
+        <v>8952</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>25538</v>
+        <v>24083</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02260937160796423</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0129927018735006</v>
+        <v>0.01302329152956491</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03715344735503712</v>
+        <v>0.03503655281996249</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>21</v>
@@ -11545,19 +11545,19 @@
         <v>21963</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>13701</v>
+        <v>14324</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>31807</v>
+        <v>32650</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01639616314112626</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0102283482380091</v>
+        <v>0.01069327372239454</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02374486815788832</v>
+        <v>0.02437415112721218</v>
       </c>
     </row>
     <row r="41">
@@ -11574,19 +11574,19 @@
         <v>113477</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>94708</v>
+        <v>95490</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>134969</v>
+        <v>136678</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1739973221961941</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1452185484745709</v>
+        <v>0.1464170908557757</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2069520241460328</v>
+        <v>0.2095724832680629</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>103</v>
@@ -11595,19 +11595,19 @@
         <v>105594</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>86962</v>
+        <v>87066</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>125706</v>
+        <v>124929</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1536206201895635</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1265149642207874</v>
+        <v>0.1266659560296543</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1828808430302692</v>
+        <v>0.1817506427173848</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>204</v>
@@ -11616,19 +11616,19 @@
         <v>219071</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>194382</v>
+        <v>193635</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>248974</v>
+        <v>249466</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1635413282066596</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1451105832757998</v>
+        <v>0.1445531164241154</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1858645565436575</v>
+        <v>0.1862318054423751</v>
       </c>
     </row>
     <row r="42">
@@ -11645,19 +11645,19 @@
         <v>279791</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>250450</v>
+        <v>254881</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>304639</v>
+        <v>306909</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4290109206623811</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3840209841797903</v>
+        <v>0.3908163034726171</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.467111382083393</v>
+        <v>0.4705909318410417</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>268</v>
@@ -11666,19 +11666,19 @@
         <v>282528</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>256565</v>
+        <v>256273</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>307764</v>
+        <v>307110</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4110293610134168</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3732580077211909</v>
+        <v>0.3728341145951133</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4477434825268454</v>
+        <v>0.4467923794885001</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>508</v>
@@ -11687,19 +11687,19 @@
         <v>562319</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>526292</v>
+        <v>526301</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>604580</v>
+        <v>603246</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4197839574594622</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3928892531851654</v>
+        <v>0.3928958299216599</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.451332353332423</v>
+        <v>0.450336657462674</v>
       </c>
     </row>
     <row r="43">
@@ -11716,19 +11716,19 @@
         <v>155233</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>134099</v>
+        <v>133520</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>180169</v>
+        <v>178265</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.238023129763564</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2056179937848413</v>
+        <v>0.2047289533975637</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2762577932825561</v>
+        <v>0.2733384435499004</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>143</v>
@@ -11737,19 +11737,19 @@
         <v>152478</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>130562</v>
+        <v>132587</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>174817</v>
+        <v>177488</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2218300728516253</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.189944920062225</v>
+        <v>0.19289170263659</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2543291392758439</v>
+        <v>0.258214731168432</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>282</v>
@@ -11758,19 +11758,19 @@
         <v>307712</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>276043</v>
+        <v>274052</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>341516</v>
+        <v>340246</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2297139094742196</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2060726118377348</v>
+        <v>0.2045861095024304</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2549497012695573</v>
+        <v>0.2540010233868442</v>
       </c>
     </row>
     <row r="44">
@@ -11787,19 +11787,19 @@
         <v>97253</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>81208</v>
+        <v>78500</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>117364</v>
+        <v>117233</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1491209152417464</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1245178503988515</v>
+        <v>0.1203656789319366</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1799577542739785</v>
+        <v>0.1797557855375098</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>114</v>
@@ -11808,19 +11808,19 @@
         <v>131225</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>111179</v>
+        <v>111653</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>153744</v>
+        <v>155949</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1909105743374302</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1617469508010822</v>
+        <v>0.162436719152557</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.223670968272328</v>
+        <v>0.2268791837388054</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>204</v>
@@ -11829,19 +11829,19 @@
         <v>228479</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>199817</v>
+        <v>201292</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>258368</v>
+        <v>260366</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1705646417185324</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.149167879008009</v>
+        <v>0.1502690469339416</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1928778061699735</v>
+        <v>0.1943694069022183</v>
       </c>
     </row>
     <row r="45">
@@ -11933,19 +11933,19 @@
         <v>2823</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>8448</v>
+        <v>8435</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.003626208229872653</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001179536395178715</v>
+        <v>0.001176832412076311</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01085084259466555</v>
+        <v>0.01083345490781469</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -11954,19 +11954,19 @@
         <v>7864</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3108</v>
+        <v>3724</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>16148</v>
+        <v>15777</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009518379627869484</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.003761961521464339</v>
+        <v>0.004507597535879317</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01954540981495436</v>
+        <v>0.01909671009803024</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>10</v>
@@ -11975,19 +11975,19 @@
         <v>10687</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>4948</v>
+        <v>4957</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>19784</v>
+        <v>18530</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006659651185344926</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.003083451401118168</v>
+        <v>0.00308904198750093</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01232836363240071</v>
+        <v>0.01154687721363557</v>
       </c>
     </row>
     <row r="47">
@@ -12004,19 +12004,19 @@
         <v>64312</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>50426</v>
+        <v>48831</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>83784</v>
+        <v>81267</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08260094150098196</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.06476647883683939</v>
+        <v>0.06271743852207044</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1076110874577859</v>
+        <v>0.1043775403672219</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>67</v>
@@ -12025,19 +12025,19 @@
         <v>70263</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>55573</v>
+        <v>56169</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>87569</v>
+        <v>89385</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08504650305786909</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.06726586869486015</v>
+        <v>0.06798788655047525</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1059944976207489</v>
+        <v>0.1081928876076993</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>126</v>
@@ -12046,19 +12046,19 @@
         <v>134574</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>114378</v>
+        <v>114890</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>163256</v>
+        <v>157937</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.08385998014324467</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0712746939871081</v>
+        <v>0.07159361767787047</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1017328398309511</v>
+        <v>0.09841821732651855</v>
       </c>
     </row>
     <row r="48">
@@ -12075,19 +12075,19 @@
         <v>190647</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>167480</v>
+        <v>167806</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>214238</v>
+        <v>214845</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2448642699307342</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2151084245230859</v>
+        <v>0.2155269930143422</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2751644783045907</v>
+        <v>0.2759436703391651</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>183</v>
@@ -12096,19 +12096,19 @@
         <v>192731</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>169354</v>
+        <v>166512</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>219777</v>
+        <v>217265</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2332838903605734</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2049876354947209</v>
+        <v>0.2015474805625636</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2660203588441517</v>
+        <v>0.2629798677721226</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>362</v>
@@ -12117,19 +12117,19 @@
         <v>383379</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>351228</v>
+        <v>348418</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>417498</v>
+        <v>419376</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2389023895888382</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2188677557487351</v>
+        <v>0.2171168339428795</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2601638561223316</v>
+        <v>0.2613343659524556</v>
       </c>
     </row>
     <row r="49">
@@ -12146,19 +12146,19 @@
         <v>373317</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>344791</v>
+        <v>343480</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>401405</v>
+        <v>404886</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4794827847785613</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4428439613791685</v>
+        <v>0.4411609836459132</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.5155579615249647</v>
+        <v>0.5200288364381299</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>347</v>
@@ -12167,19 +12167,19 @@
         <v>379291</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>351697</v>
+        <v>352175</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>408978</v>
+        <v>414845</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4590972526325013</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.4256971161291</v>
+        <v>0.4262753354466581</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.495030885065104</v>
+        <v>0.5021319656396506</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>714</v>
@@ -12188,19 +12188,19 @@
         <v>752608</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>712036</v>
+        <v>711061</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>795821</v>
+        <v>793659</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4689877830712039</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4437055282127236</v>
+        <v>0.4430976279723362</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4959155681233678</v>
+        <v>0.4945684944430921</v>
       </c>
     </row>
     <row r="50">
@@ -12217,19 +12217,19 @@
         <v>147484</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>127062</v>
+        <v>125012</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>170669</v>
+        <v>168958</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1894257955598499</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1631959550895362</v>
+        <v>0.1605639439257395</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2192040680055836</v>
+        <v>0.2170070690179466</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>151</v>
@@ -12238,19 +12238,19 @@
         <v>176018</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>152512</v>
+        <v>152462</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>201157</v>
+        <v>201990</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2130539743211867</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1846022858090916</v>
+        <v>0.1845417946054732</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2434820675073538</v>
+        <v>0.2444903674668921</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>293</v>
@@ -12259,19 +12259,19 @@
         <v>323502</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>290539</v>
+        <v>291285</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>354284</v>
+        <v>356818</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2015901960113683</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1810490950076611</v>
+        <v>0.1815145523165008</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2207721998538917</v>
+        <v>0.2223513209306853</v>
       </c>
     </row>
     <row r="51">
@@ -12363,19 +12363,19 @@
         <v>34330</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>23054</v>
+        <v>24103</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>47552</v>
+        <v>47436</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01013571845558139</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.006806780103807277</v>
+        <v>0.007116446446028751</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01403966143253429</v>
+        <v>0.01400533086858497</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>43</v>
@@ -12384,19 +12384,19 @@
         <v>45855</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>33229</v>
+        <v>33307</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>59849</v>
+        <v>60692</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.0129553697511933</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.009387979780402556</v>
+        <v>0.009410106007018136</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01690887449108361</v>
+        <v>0.01714727251338088</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>75</v>
@@ -12405,19 +12405,19 @@
         <v>80185</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>63500</v>
+        <v>64006</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>99997</v>
+        <v>101133</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01157658164301433</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.009167760895637197</v>
+        <v>0.009240739822002506</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01443701952811992</v>
+        <v>0.0146009473001857</v>
       </c>
     </row>
     <row r="53">
@@ -12434,19 +12434,19 @@
         <v>477716</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>437520</v>
+        <v>435796</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>524206</v>
+        <v>521111</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1410446012491911</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.129176863074051</v>
+        <v>0.1286678042377939</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1547707679416</v>
+        <v>0.1538568758919696</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>380</v>
@@ -12455,19 +12455,19 @@
         <v>392288</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>355358</v>
+        <v>359270</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>433248</v>
+        <v>430254</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1108324572410888</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1003986466527524</v>
+        <v>0.1015038412015932</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1224045298240671</v>
+        <v>0.1215587512607695</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>823</v>
@@ -12476,19 +12476,19 @@
         <v>870005</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>818300</v>
+        <v>811489</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>923960</v>
+        <v>918118</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1256059666270861</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1181411350398141</v>
+        <v>0.1171578579919182</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.133395667756845</v>
+        <v>0.1325523347712562</v>
       </c>
     </row>
     <row r="54">
@@ -12505,19 +12505,19 @@
         <v>1209999</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1157628</v>
+        <v>1155679</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1264437</v>
+        <v>1271269</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3572495590412988</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3417870501726683</v>
+        <v>0.341211720780778</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3733221369250166</v>
+        <v>0.3753393216962791</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1128</v>
@@ -12526,19 +12526,19 @@
         <v>1167700</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1112809</v>
+        <v>1110029</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1226388</v>
+        <v>1227948</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3299077685289673</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3143995787534583</v>
+        <v>0.3136142276278586</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3464888076145868</v>
+        <v>0.3469297504208666</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2264</v>
@@ -12547,19 +12547,19 @@
         <v>2377699</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2302959</v>
+        <v>2299227</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2459231</v>
+        <v>2460296</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3432776968152741</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3324871714399215</v>
+        <v>0.3319483952515195</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3550488234787998</v>
+        <v>0.3552025481104829</v>
       </c>
     </row>
     <row r="55">
@@ -12576,19 +12576,19 @@
         <v>1037127</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>984612</v>
+        <v>981897</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1090774</v>
+        <v>1090105</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3062093828014318</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2907044249817156</v>
+        <v>0.2899028766630907</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3220486104120733</v>
+        <v>0.3218509105744487</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1043</v>
@@ -12597,19 +12597,19 @@
         <v>1107354</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1048706</v>
+        <v>1045770</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1163154</v>
+        <v>1164179</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3128584352170354</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2962888467650264</v>
+        <v>0.2954591404133898</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3286234189457812</v>
+        <v>0.3289130749961695</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2052</v>
@@ -12618,19 +12618,19 @@
         <v>2144481</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2074984</v>
+        <v>2068089</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2232410</v>
+        <v>2227964</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3096070989913255</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2995736147213517</v>
+        <v>0.2985780335419864</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.322301783917351</v>
+        <v>0.321659926224679</v>
       </c>
     </row>
     <row r="56">
@@ -12647,19 +12647,19 @@
         <v>627814</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>584795</v>
+        <v>586733</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>670390</v>
+        <v>674651</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1853607384524968</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1726592865552502</v>
+        <v>0.1732315659068471</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1979310706231757</v>
+        <v>0.1991892633619365</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>740</v>
@@ -12668,19 +12668,19 @@
         <v>826276</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>775734</v>
+        <v>778448</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>877674</v>
+        <v>882553</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2334459692617152</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2191665482554606</v>
+        <v>0.2199332982009041</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2479675316909678</v>
+        <v>0.2493459818591809</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1344</v>
@@ -12689,19 +12689,19 @@
         <v>1454090</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1386335</v>
+        <v>1387058</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1526399</v>
+        <v>1525995</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2099326559233</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2001506808028755</v>
+        <v>0.2002549447118294</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2203721977380997</v>
+        <v>0.2203138298551883</v>
       </c>
     </row>
     <row r="57">
